--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\2_GBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\2_GBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ECD701-2CA1-4CCF-938E-ADA30924ECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,9 @@
     <sheet name="Example" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$P$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$P$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,28 +37,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
   <si>
@@ -529,7 +506,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
@@ -1198,7 +1175,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1237,6 +1214,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1334,13 +1312,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.21212121212121213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15151515151515152</c:v>
+                  <c:v>0.24242424242424243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1358,18 +1336,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.15151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.6</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
             </c:ext>
@@ -1385,11 +1363,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="536669944"/>
-        <c:axId val="536669552"/>
+        <c:axId val="397770832"/>
+        <c:axId val="398724776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536669944"/>
+        <c:axId val="397770832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536669552"/>
+        <c:crossAx val="398724776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1440,7 +1418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536669552"/>
+        <c:axId val="398724776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536669944"/>
+        <c:crossAx val="397770832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,7 +1505,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1698,7 +1676,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78EB-4234-8185-F5ED9BB6C945}"/>
             </c:ext>
@@ -1714,11 +1692,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="536670728"/>
-        <c:axId val="115326064"/>
+        <c:axId val="398718112"/>
+        <c:axId val="398722816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536670728"/>
+        <c:axId val="398718112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +1739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115326064"/>
+        <c:crossAx val="398722816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1769,7 +1747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115326064"/>
+        <c:axId val="398722816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536670728"/>
+        <c:crossAx val="398718112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2961,7 +2939,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +2975,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3057,7 +3035,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3126,7 +3104,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3269,7 +3247,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3554,11 +3532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,8 +3568,8 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" cm="1">
-        <f t="array" ref="B2:B34">Marks!O2:O34</f>
+      <c r="B2" s="8">
+        <f>Marks!O2</f>
         <v>83</v>
       </c>
       <c r="E2" s="18"/>
@@ -3602,6 +3580,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
+        <f>Marks!O3</f>
         <v>83</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -3617,6 +3596,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
+        <f>Marks!O4</f>
         <v>83</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -3624,7 +3604,7 @@
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>12.575757575757576</v>
+        <v>52.212121212121211</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3632,6 +3612,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
+        <f>Marks!O5</f>
         <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3639,7 +3620,7 @@
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>30.221091872058395</v>
+        <v>37.485628559287207</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3647,6 +3628,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
+        <f>Marks!O6</f>
         <v>83</v>
       </c>
       <c r="E6" s="1"/>
@@ -3660,7 +3642,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <f>Marks!O7</f>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -3683,7 +3666,8 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <f>Marks!O8</f>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3699,7 +3683,7 @@
       </c>
       <c r="I8" s="19">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
-        <v>0</v>
+        <v>0.21212121212121213</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3707,7 +3691,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <f>Marks!O9</f>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3723,7 +3708,7 @@
       </c>
       <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v>0.15151515151515152</v>
+        <v>0.24242424242424243</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3731,7 +3716,8 @@
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <f>Marks!O10</f>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -3747,7 +3733,7 @@
       </c>
       <c r="I10" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3755,7 +3741,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
+        <f>Marks!O11</f>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -3779,7 +3766,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <f>Marks!O12</f>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3803,7 +3791,8 @@
         <v>12</v>
       </c>
       <c r="B13" s="8">
-        <v>0</v>
+        <f>Marks!O20</f>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -3827,7 +3816,8 @@
         <v>13</v>
       </c>
       <c r="B14" s="8">
-        <v>0</v>
+        <f>Marks!O15</f>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -3851,7 +3841,8 @@
         <v>14</v>
       </c>
       <c r="B15" s="8">
-        <v>0</v>
+        <f>Marks!O17</f>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -3875,6 +3866,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8">
+        <f>Marks!O25</f>
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -3891,7 +3883,7 @@
       </c>
       <c r="I16" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
-        <v>0</v>
+        <v>0.15151515151515152</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3899,7 +3891,8 @@
         <v>16</v>
       </c>
       <c r="B17" s="8">
-        <v>0</v>
+        <f>Marks!O16</f>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -3923,6 +3916,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8">
+        <f>Marks!O26</f>
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3939,7 +3933,7 @@
       </c>
       <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>5.6</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,7 +3941,8 @@
         <v>18</v>
       </c>
       <c r="B19" s="8">
-        <v>0</v>
+        <f>Marks!O14</f>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3955,7 +3950,8 @@
         <v>19</v>
       </c>
       <c r="B20" s="8">
-        <v>0</v>
+        <f>Marks!O18</f>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3963,7 +3959,8 @@
         <v>20</v>
       </c>
       <c r="B21" s="8">
-        <v>0</v>
+        <f>Marks!O22</f>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3971,6 +3968,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8">
+        <f>Marks!O27</f>
         <v>0</v>
       </c>
     </row>
@@ -3979,6 +3977,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8">
+        <f>Marks!O28</f>
         <v>0</v>
       </c>
     </row>
@@ -3987,6 +3986,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8">
+        <f>Marks!O29</f>
         <v>0</v>
       </c>
     </row>
@@ -3995,6 +3995,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8">
+        <f>Marks!O30</f>
         <v>0</v>
       </c>
     </row>
@@ -4003,6 +4004,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8">
+        <f>Marks!O31</f>
         <v>0</v>
       </c>
     </row>
@@ -4011,7 +4013,8 @@
         <v>26</v>
       </c>
       <c r="B27" s="8">
-        <v>0</v>
+        <f>Marks!O23</f>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4019,6 +4022,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
+        <f>Marks!O32</f>
         <v>0</v>
       </c>
     </row>
@@ -4027,7 +4031,8 @@
         <v>28</v>
       </c>
       <c r="B29" s="8">
-        <v>0</v>
+        <f>Marks!O19</f>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4035,7 +4040,8 @@
         <v>29</v>
       </c>
       <c r="B30" s="8">
-        <v>0</v>
+        <f>Marks!O21</f>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4043,6 +4049,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8">
+        <f>Marks!O33</f>
         <v>0</v>
       </c>
     </row>
@@ -4051,7 +4058,8 @@
         <v>31</v>
       </c>
       <c r="B32" s="8">
-        <v>0</v>
+        <f>Marks!O24</f>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4059,7 +4067,8 @@
         <v>32</v>
       </c>
       <c r="B33" s="8">
-        <v>0</v>
+        <f>Marks!O13</f>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4067,6 +4076,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8">
+        <f>Marks!O34</f>
         <v>0</v>
       </c>
       <c r="D34" s="58" t="s">
@@ -4253,11 +4263,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4266,11 +4276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FCE937-D79D-41DD-B1DB-7A844447D33F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -4427,7 +4437,7 @@
         <v>15</v>
       </c>
       <c r="O3" s="36">
-        <f t="shared" ref="O3:O34" si="0">SUM(D3:N3)</f>
+        <f t="shared" ref="O3:O33" si="0">SUM(D3:N3)</f>
         <v>83</v>
       </c>
     </row>
@@ -4585,20 +4595,42 @@
       <c r="C7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
+      <c r="D7" s="49">
+        <v>5</v>
+      </c>
+      <c r="E7" s="50">
+        <v>5</v>
+      </c>
+      <c r="F7" s="50">
+        <v>5</v>
+      </c>
+      <c r="G7" s="50">
+        <v>9</v>
+      </c>
+      <c r="H7" s="50">
+        <v>5</v>
+      </c>
+      <c r="I7" s="50">
+        <v>6</v>
+      </c>
+      <c r="J7" s="50">
+        <v>5</v>
+      </c>
+      <c r="K7" s="50">
+        <v>5</v>
+      </c>
+      <c r="L7" s="50">
+        <v>16</v>
+      </c>
+      <c r="M7" s="50">
+        <v>10</v>
+      </c>
+      <c r="N7" s="50">
+        <v>14</v>
+      </c>
       <c r="O7" s="51">
         <f>SUM(D7:N7)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4611,20 +4643,42 @@
       <c r="C8" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
+      <c r="D8" s="35">
+        <v>5</v>
+      </c>
+      <c r="E8" s="44">
+        <v>5</v>
+      </c>
+      <c r="F8" s="44">
+        <v>5</v>
+      </c>
+      <c r="G8" s="44">
+        <v>9</v>
+      </c>
+      <c r="H8" s="44">
+        <v>5</v>
+      </c>
+      <c r="I8" s="44">
+        <v>6</v>
+      </c>
+      <c r="J8" s="44">
+        <v>5</v>
+      </c>
+      <c r="K8" s="44">
+        <v>5</v>
+      </c>
+      <c r="L8" s="44">
+        <v>16</v>
+      </c>
+      <c r="M8" s="44">
+        <v>10</v>
+      </c>
+      <c r="N8" s="44">
+        <v>14</v>
+      </c>
       <c r="O8" s="36">
         <f>SUM(D8:N8)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4637,451 +4691,767 @@
       <c r="C9" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
+      <c r="D9" s="55">
+        <v>5</v>
+      </c>
+      <c r="E9" s="56">
+        <v>5</v>
+      </c>
+      <c r="F9" s="56">
+        <v>5</v>
+      </c>
+      <c r="G9" s="56">
+        <v>9</v>
+      </c>
+      <c r="H9" s="56">
+        <v>5</v>
+      </c>
+      <c r="I9" s="56">
+        <v>6</v>
+      </c>
+      <c r="J9" s="56">
+        <v>5</v>
+      </c>
+      <c r="K9" s="56">
+        <v>5</v>
+      </c>
+      <c r="L9" s="56">
+        <v>16</v>
+      </c>
+      <c r="M9" s="56">
+        <v>10</v>
+      </c>
+      <c r="N9" s="56">
+        <v>14</v>
+      </c>
       <c r="O9" s="57">
         <f>SUM(D9:N9)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="25">
-        <f>1+15+4+15+10+25+15+15</f>
-        <v>100</v>
+      <c r="A10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="35">
+        <v>5</v>
+      </c>
+      <c r="E10" s="44">
+        <v>4</v>
+      </c>
+      <c r="F10" s="44">
+        <v>4</v>
+      </c>
+      <c r="G10" s="44">
+        <v>7</v>
+      </c>
+      <c r="H10" s="44">
+        <v>4</v>
+      </c>
+      <c r="I10" s="44">
+        <v>6</v>
+      </c>
+      <c r="J10" s="44">
+        <v>5</v>
+      </c>
+      <c r="K10" s="44">
+        <v>1</v>
+      </c>
+      <c r="L10" s="44">
+        <v>16</v>
+      </c>
+      <c r="M10" s="44">
+        <v>15</v>
+      </c>
+      <c r="N10" s="44">
+        <v>14</v>
+      </c>
+      <c r="O10" s="36">
+        <f>SUM(D10:N10)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
+        <v>98</v>
+      </c>
+      <c r="D11" s="35">
+        <v>5</v>
+      </c>
+      <c r="E11" s="44">
+        <v>4</v>
+      </c>
+      <c r="F11" s="44">
+        <v>4</v>
+      </c>
+      <c r="G11" s="44">
+        <v>7</v>
+      </c>
+      <c r="H11" s="44">
+        <v>4</v>
+      </c>
+      <c r="I11" s="44">
+        <v>6</v>
+      </c>
+      <c r="J11" s="44">
+        <v>5</v>
+      </c>
+      <c r="K11" s="44">
+        <v>1</v>
+      </c>
+      <c r="L11" s="44">
+        <v>16</v>
+      </c>
+      <c r="M11" s="44">
+        <v>15</v>
+      </c>
+      <c r="N11" s="44">
+        <v>14</v>
+      </c>
       <c r="O11" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D11:N11)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="41" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="37">
+        <v>5</v>
+      </c>
+      <c r="E12" s="45">
+        <v>4</v>
+      </c>
+      <c r="F12" s="45">
+        <v>4</v>
+      </c>
+      <c r="G12" s="45">
+        <v>7</v>
+      </c>
+      <c r="H12" s="45">
+        <v>4</v>
+      </c>
+      <c r="I12" s="45">
+        <v>6</v>
+      </c>
+      <c r="J12" s="45">
+        <v>5</v>
+      </c>
+      <c r="K12" s="45">
+        <v>1</v>
+      </c>
+      <c r="L12" s="45">
+        <v>16</v>
+      </c>
+      <c r="M12" s="45">
+        <v>15</v>
+      </c>
+      <c r="N12" s="45">
+        <v>14</v>
+      </c>
+      <c r="O12" s="40">
+        <f>SUM(D12:N12)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A13" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="49">
+        <v>5</v>
+      </c>
+      <c r="E13" s="50">
+        <v>4</v>
+      </c>
+      <c r="F13" s="50">
+        <v>5</v>
+      </c>
+      <c r="G13" s="50">
+        <v>6</v>
+      </c>
+      <c r="H13" s="50">
+        <v>4</v>
+      </c>
+      <c r="I13" s="50">
+        <v>5</v>
+      </c>
+      <c r="J13" s="50">
+        <v>5</v>
+      </c>
+      <c r="K13" s="50">
+        <v>5</v>
+      </c>
+      <c r="L13" s="50">
+        <v>16</v>
+      </c>
+      <c r="M13" s="50">
+        <v>12</v>
+      </c>
+      <c r="N13" s="50">
+        <v>12</v>
+      </c>
+      <c r="O13" s="51">
+        <f>SUM(D13:N13)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
+        <v>83</v>
+      </c>
+      <c r="D14" s="35">
+        <v>5</v>
+      </c>
+      <c r="E14" s="44">
+        <v>4</v>
+      </c>
+      <c r="F14" s="44">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44">
+        <v>6</v>
+      </c>
+      <c r="H14" s="44">
+        <v>4</v>
+      </c>
+      <c r="I14" s="44">
+        <v>5</v>
+      </c>
+      <c r="J14" s="44">
+        <v>5</v>
+      </c>
+      <c r="K14" s="44">
+        <v>5</v>
+      </c>
+      <c r="L14" s="44">
+        <v>16</v>
+      </c>
+      <c r="M14" s="44">
+        <v>12</v>
+      </c>
+      <c r="N14" s="44">
+        <v>12</v>
+      </c>
       <c r="O14" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D14:N14)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="55">
+        <v>5</v>
+      </c>
+      <c r="E15" s="56">
+        <v>4</v>
+      </c>
+      <c r="F15" s="56">
+        <v>5</v>
+      </c>
+      <c r="G15" s="56">
+        <v>6</v>
+      </c>
+      <c r="H15" s="56">
+        <v>4</v>
+      </c>
+      <c r="I15" s="56">
+        <v>5</v>
+      </c>
+      <c r="J15" s="56">
+        <v>5</v>
+      </c>
+      <c r="K15" s="56">
+        <v>5</v>
+      </c>
+      <c r="L15" s="56">
+        <v>16</v>
+      </c>
+      <c r="M15" s="56">
+        <v>12</v>
+      </c>
+      <c r="N15" s="56">
+        <v>12</v>
+      </c>
+      <c r="O15" s="57">
+        <f>SUM(D15:N15)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D16" s="49">
+        <v>5</v>
+      </c>
+      <c r="E16" s="50">
+        <v>5</v>
+      </c>
+      <c r="F16" s="50">
+        <v>5</v>
+      </c>
+      <c r="G16" s="50">
+        <v>7</v>
+      </c>
+      <c r="H16" s="50">
+        <v>4</v>
+      </c>
+      <c r="I16" s="50">
+        <v>6</v>
+      </c>
+      <c r="J16" s="50">
+        <v>7</v>
+      </c>
+      <c r="K16" s="50">
+        <v>3</v>
+      </c>
+      <c r="L16" s="50">
+        <v>16</v>
+      </c>
+      <c r="M16" s="50">
+        <v>12</v>
+      </c>
+      <c r="N16" s="50">
+        <v>17</v>
+      </c>
+      <c r="O16" s="51">
+        <f>SUM(D16:N16)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
+        <v>65</v>
+      </c>
+      <c r="D17" s="35">
+        <v>5</v>
+      </c>
+      <c r="E17" s="44">
+        <v>5</v>
+      </c>
+      <c r="F17" s="44">
+        <v>5</v>
+      </c>
+      <c r="G17" s="44">
+        <v>7</v>
+      </c>
+      <c r="H17" s="44">
+        <v>4</v>
+      </c>
+      <c r="I17" s="44">
+        <v>6</v>
+      </c>
+      <c r="J17" s="44">
+        <v>7</v>
+      </c>
+      <c r="K17" s="44">
+        <v>3</v>
+      </c>
+      <c r="L17" s="44">
+        <v>16</v>
+      </c>
+      <c r="M17" s="44">
+        <v>12</v>
+      </c>
+      <c r="N17" s="44">
+        <v>17</v>
+      </c>
       <c r="O17" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D17:N17)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
+        <v>86</v>
+      </c>
+      <c r="D18" s="35">
+        <v>5</v>
+      </c>
+      <c r="E18" s="44">
+        <v>5</v>
+      </c>
+      <c r="F18" s="44">
+        <v>5</v>
+      </c>
+      <c r="G18" s="44">
+        <v>7</v>
+      </c>
+      <c r="H18" s="44">
+        <v>4</v>
+      </c>
+      <c r="I18" s="44">
+        <v>6</v>
+      </c>
+      <c r="J18" s="44">
+        <v>7</v>
+      </c>
+      <c r="K18" s="44">
+        <v>3</v>
+      </c>
+      <c r="L18" s="44">
+        <v>16</v>
+      </c>
+      <c r="M18" s="44">
+        <v>12</v>
+      </c>
+      <c r="N18" s="44">
+        <v>17</v>
+      </c>
       <c r="O18" s="36">
+        <f>SUM(D18:N18)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="55">
+        <v>5</v>
+      </c>
+      <c r="E19" s="56">
+        <v>5</v>
+      </c>
+      <c r="F19" s="56">
+        <v>5</v>
+      </c>
+      <c r="G19" s="56">
+        <v>7</v>
+      </c>
+      <c r="H19" s="56">
+        <v>4</v>
+      </c>
+      <c r="I19" s="56">
+        <v>6</v>
+      </c>
+      <c r="J19" s="56">
+        <v>7</v>
+      </c>
+      <c r="K19" s="56">
+        <v>3</v>
+      </c>
+      <c r="L19" s="56">
+        <v>16</v>
+      </c>
+      <c r="M19" s="56">
+        <v>12</v>
+      </c>
+      <c r="N19" s="56">
+        <v>17</v>
+      </c>
+      <c r="O19" s="57">
+        <f>SUM(D19:N19)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="49">
+        <v>4</v>
+      </c>
+      <c r="E20" s="50">
+        <v>5</v>
+      </c>
+      <c r="F20" s="50">
+        <v>5</v>
+      </c>
+      <c r="G20" s="50">
+        <v>7</v>
+      </c>
+      <c r="H20" s="50">
+        <v>5</v>
+      </c>
+      <c r="I20" s="50">
+        <v>6</v>
+      </c>
+      <c r="J20" s="50">
+        <v>8</v>
+      </c>
+      <c r="K20" s="50">
+        <v>5</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
+        <v>131</v>
+      </c>
+      <c r="D21" s="35">
+        <v>4</v>
+      </c>
+      <c r="E21" s="44">
+        <v>5</v>
+      </c>
+      <c r="F21" s="44">
+        <v>5</v>
+      </c>
+      <c r="G21" s="44">
+        <v>7</v>
+      </c>
+      <c r="H21" s="44">
+        <v>5</v>
+      </c>
+      <c r="I21" s="44">
+        <v>6</v>
+      </c>
+      <c r="J21" s="44">
+        <v>8</v>
+      </c>
+      <c r="K21" s="44">
+        <v>5</v>
+      </c>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
       <c r="N21" s="44"/>
       <c r="O21" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D21:N21)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
+        <v>89</v>
+      </c>
+      <c r="D22" s="35">
+        <v>4</v>
+      </c>
+      <c r="E22" s="44">
+        <v>5</v>
+      </c>
+      <c r="F22" s="44">
+        <v>5</v>
+      </c>
+      <c r="G22" s="44">
+        <v>7</v>
+      </c>
+      <c r="H22" s="44">
+        <v>5</v>
+      </c>
+      <c r="I22" s="44">
+        <v>6</v>
+      </c>
+      <c r="J22" s="44">
+        <v>8</v>
+      </c>
+      <c r="K22" s="44">
+        <v>5</v>
+      </c>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
       <c r="O22" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D22:N22)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+        <v>119</v>
+      </c>
+      <c r="D23" s="35">
+        <v>4</v>
+      </c>
+      <c r="E23" s="44">
+        <v>5</v>
+      </c>
+      <c r="F23" s="44">
+        <v>5</v>
+      </c>
+      <c r="G23" s="44">
+        <v>7</v>
+      </c>
+      <c r="H23" s="44">
+        <v>5</v>
+      </c>
+      <c r="I23" s="44">
+        <v>6</v>
+      </c>
+      <c r="J23" s="44">
+        <v>8</v>
+      </c>
+      <c r="K23" s="44">
+        <v>5</v>
+      </c>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
       <c r="N23" s="44"/>
       <c r="O23" s="36">
+        <f>SUM(D23:N23)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="55">
+        <v>4</v>
+      </c>
+      <c r="E24" s="56">
+        <v>5</v>
+      </c>
+      <c r="F24" s="56">
+        <v>5</v>
+      </c>
+      <c r="G24" s="56">
+        <v>7</v>
+      </c>
+      <c r="H24" s="56">
+        <v>5</v>
+      </c>
+      <c r="I24" s="56">
+        <v>6</v>
+      </c>
+      <c r="J24" s="56">
+        <v>8</v>
+      </c>
+      <c r="K24" s="56">
+        <v>5</v>
+      </c>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57">
+        <f>SUM(D24:N24)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="44"/>
@@ -5101,13 +5471,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="44"/>
@@ -5127,13 +5497,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="44"/>
@@ -5153,13 +5523,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="44"/>
@@ -5179,13 +5549,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="44"/>
@@ -5205,13 +5575,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="44"/>
@@ -5231,13 +5601,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="44"/>
@@ -5255,15 +5625,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="44"/>
@@ -5281,38 +5651,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="41" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="40">
-        <f t="shared" si="0"/>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="31">
+        <f>SUM(D34:N34)</f>
         <v>0</v>
       </c>
+      <c r="P34" s="25">
+        <f>1+15+4+15+10+25+15+15</f>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P34" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:P33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5983,8 +6359,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\2_GBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\2_GBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DBD479-8D0E-4F32-AECF-381AA8D7B723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="90" yWindow="45" windowWidth="15075" windowHeight="15780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$P$33</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -506,7 +507,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
@@ -698,7 +699,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -711,7 +714,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -724,7 +729,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -737,7 +744,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -753,7 +762,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -768,7 +777,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -783,7 +792,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -798,7 +807,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -807,13 +816,52 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -825,10 +873,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -840,10 +888,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -852,13 +900,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -867,11 +913,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -880,9 +928,37 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -892,10 +968,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -904,84 +978,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1059,6 +1060,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,35 +1114,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,27 +1140,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1175,7 +1176,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1214,7 +1215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1312,19 +1312,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.21212121212121213</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24242424242424243</c:v>
+                  <c:v>0.21212121212121213</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.30303030303030304</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1336,18 +1336,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15151515151515152</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43478260869565216</c:v>
+                  <c:v>0.13793103448275862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
             </c:ext>
@@ -1505,7 +1505,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1676,7 +1676,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78EB-4234-8185-F5ED9BB6C945}"/>
             </c:ext>
@@ -2939,7 +2939,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +2975,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3035,7 +3035,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3104,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3247,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B2" s="8">
         <f>Marks!O2</f>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B3" s="8">
         <f>Marks!O3</f>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>28</v>
@@ -3597,14 +3597,14 @@
       </c>
       <c r="B4" s="8">
         <f>Marks!O4</f>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>52.212121212121211</v>
+        <v>64.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3613,14 +3613,14 @@
       </c>
       <c r="B5" s="8">
         <f>Marks!O5</f>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>37.485628559287207</v>
+        <v>24.778603000707424</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B6" s="8">
         <f>Marks!O6</f>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B7" s="8">
         <f>Marks!O7</f>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B8" s="8">
         <f>Marks!O8</f>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="I8" s="19">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
-        <v>0.21212121212121213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B9" s="8">
         <f>Marks!O9</f>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v>0.24242424242424243</v>
+        <v>0.21212121212121213</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B10" s="8">
         <f>Marks!O10</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="B11" s="8">
         <f>Marks!O11</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v>0</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B12" s="8">
         <f>Marks!O12</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>0</v>
+        <v>0.30303030303030304</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B13" s="8">
         <f>Marks!O20</f>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B14" s="8">
         <f>Marks!O15</f>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B15" s="8">
         <f>Marks!O17</f>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B16" s="8">
         <f>Marks!O25</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="I16" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
-        <v>0.15151515151515152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B17" s="8">
         <f>Marks!O16</f>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -3916,7 +3916,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8">
-        <f>Marks!O26</f>
+        <f>Marks!O31</f>
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>0.43478260869565216</v>
+        <v>0.13793103448275862</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="B19" s="8">
         <f>Marks!O14</f>
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B20" s="8">
         <f>Marks!O18</f>
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B21" s="8">
         <f>Marks!O22</f>
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3968,8 +3968,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="8">
-        <f>Marks!O27</f>
-        <v>0</v>
+        <f>Marks!O30</f>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3977,8 +3977,8 @@
         <v>22</v>
       </c>
       <c r="B23" s="8">
-        <f>Marks!O28</f>
-        <v>0</v>
+        <f>Marks!O26</f>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3986,7 +3986,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8">
-        <f>Marks!O29</f>
+        <f>Marks!O32</f>
         <v>0</v>
       </c>
     </row>
@@ -3995,8 +3995,8 @@
         <v>24</v>
       </c>
       <c r="B25" s="8">
-        <f>Marks!O30</f>
-        <v>0</v>
+        <f>Marks!O27</f>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,7 +4004,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8">
-        <f>Marks!O31</f>
+        <f>Marks!O33</f>
         <v>0</v>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B27" s="8">
         <f>Marks!O23</f>
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4022,8 +4022,8 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
-        <f>Marks!O32</f>
-        <v>0</v>
+        <f>Marks!O29</f>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B29" s="8">
         <f>Marks!O19</f>
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B30" s="8">
         <f>Marks!O21</f>
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4049,8 +4049,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="8">
-        <f>Marks!O33</f>
-        <v>0</v>
+        <f>Marks!O28</f>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B32" s="8">
         <f>Marks!O24</f>
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B33" s="8">
         <f>Marks!O13</f>
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4079,16 +4079,16 @@
         <f>Marks!O34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -4263,11 +4263,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4276,11 +4276,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -4335,7 +4337,7 @@
       <c r="M1" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="37" t="s">
         <v>153</v>
       </c>
       <c r="O1" s="24" t="s">
@@ -4346,1244 +4348,1406 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="49">
-        <v>4</v>
-      </c>
-      <c r="E2" s="50">
+      <c r="D2" s="43">
+        <v>2</v>
+      </c>
+      <c r="E2" s="44">
         <v>3</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="44">
         <v>3</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="44">
+        <v>4</v>
+      </c>
+      <c r="H2" s="44">
+        <v>4</v>
+      </c>
+      <c r="I2" s="44">
+        <v>5</v>
+      </c>
+      <c r="J2" s="44">
+        <v>8</v>
+      </c>
+      <c r="K2" s="44">
+        <v>5</v>
+      </c>
+      <c r="L2" s="44">
+        <v>15</v>
+      </c>
+      <c r="M2" s="44">
+        <v>15</v>
+      </c>
+      <c r="N2" s="44">
+        <v>10</v>
+      </c>
+      <c r="O2" s="45">
+        <f>SUM(D2:N2)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="30">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38">
+        <v>3</v>
+      </c>
+      <c r="G3" s="38">
+        <v>4</v>
+      </c>
+      <c r="H3" s="38">
+        <v>4</v>
+      </c>
+      <c r="I3" s="38">
+        <v>5</v>
+      </c>
+      <c r="J3" s="38">
+        <v>8</v>
+      </c>
+      <c r="K3" s="38">
+        <v>5</v>
+      </c>
+      <c r="L3" s="38">
+        <v>15</v>
+      </c>
+      <c r="M3" s="38">
+        <v>15</v>
+      </c>
+      <c r="N3" s="38">
+        <v>10</v>
+      </c>
+      <c r="O3" s="31">
+        <f t="shared" ref="O3:O33" si="0">SUM(D3:N3)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="30">
+        <v>2</v>
+      </c>
+      <c r="E4" s="38">
+        <v>3</v>
+      </c>
+      <c r="F4" s="38">
+        <v>3</v>
+      </c>
+      <c r="G4" s="38">
+        <v>4</v>
+      </c>
+      <c r="H4" s="38">
+        <v>4</v>
+      </c>
+      <c r="I4" s="38">
+        <v>5</v>
+      </c>
+      <c r="J4" s="38">
+        <v>8</v>
+      </c>
+      <c r="K4" s="38">
+        <v>5</v>
+      </c>
+      <c r="L4" s="38">
+        <v>15</v>
+      </c>
+      <c r="M4" s="38">
+        <v>15</v>
+      </c>
+      <c r="N4" s="38">
+        <v>10</v>
+      </c>
+      <c r="O4" s="31">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="30">
+        <v>2</v>
+      </c>
+      <c r="E5" s="38">
+        <v>3</v>
+      </c>
+      <c r="F5" s="38">
+        <v>3</v>
+      </c>
+      <c r="G5" s="38">
+        <v>4</v>
+      </c>
+      <c r="H5" s="38">
+        <v>4</v>
+      </c>
+      <c r="I5" s="38">
+        <v>5</v>
+      </c>
+      <c r="J5" s="38">
+        <v>8</v>
+      </c>
+      <c r="K5" s="38">
+        <v>5</v>
+      </c>
+      <c r="L5" s="38">
+        <v>15</v>
+      </c>
+      <c r="M5" s="38">
+        <v>15</v>
+      </c>
+      <c r="N5" s="38">
+        <v>10</v>
+      </c>
+      <c r="O5" s="31">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="49">
+        <v>2</v>
+      </c>
+      <c r="E6" s="50">
+        <v>3</v>
+      </c>
+      <c r="F6" s="50">
+        <v>3</v>
+      </c>
+      <c r="G6" s="50">
+        <v>4</v>
+      </c>
+      <c r="H6" s="50">
+        <v>4</v>
+      </c>
+      <c r="I6" s="50">
+        <v>5</v>
+      </c>
+      <c r="J6" s="50">
+        <v>8</v>
+      </c>
+      <c r="K6" s="50">
+        <v>5</v>
+      </c>
+      <c r="L6" s="50">
+        <v>15</v>
+      </c>
+      <c r="M6" s="50">
+        <v>15</v>
+      </c>
+      <c r="N6" s="50">
+        <v>10</v>
+      </c>
+      <c r="O6" s="51">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="43">
+        <v>5</v>
+      </c>
+      <c r="E7" s="44">
+        <v>5</v>
+      </c>
+      <c r="F7" s="44">
+        <v>5</v>
+      </c>
+      <c r="G7" s="44">
+        <v>8</v>
+      </c>
+      <c r="H7" s="44">
+        <v>5</v>
+      </c>
+      <c r="I7" s="44">
         <v>6</v>
       </c>
-      <c r="H2" s="50">
-        <v>4</v>
-      </c>
-      <c r="I2" s="50">
-        <v>5</v>
-      </c>
-      <c r="J2" s="50">
+      <c r="J7" s="44">
+        <v>5</v>
+      </c>
+      <c r="K7" s="44">
+        <v>5</v>
+      </c>
+      <c r="L7" s="44">
+        <v>16</v>
+      </c>
+      <c r="M7" s="44">
+        <v>10</v>
+      </c>
+      <c r="N7" s="44">
+        <v>9</v>
+      </c>
+      <c r="O7" s="45">
+        <f t="shared" ref="O7:O19" si="1">SUM(D7:N7)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="30">
+        <v>5</v>
+      </c>
+      <c r="E8" s="38">
+        <v>5</v>
+      </c>
+      <c r="F8" s="38">
+        <v>5</v>
+      </c>
+      <c r="G8" s="38">
         <v>8</v>
       </c>
-      <c r="K2" s="50">
-        <v>5</v>
-      </c>
-      <c r="L2" s="50">
+      <c r="H8" s="38">
+        <v>5</v>
+      </c>
+      <c r="I8" s="38">
+        <v>6</v>
+      </c>
+      <c r="J8" s="38">
+        <v>5</v>
+      </c>
+      <c r="K8" s="38">
+        <v>5</v>
+      </c>
+      <c r="L8" s="38">
+        <v>16</v>
+      </c>
+      <c r="M8" s="38">
+        <v>10</v>
+      </c>
+      <c r="N8" s="38">
+        <v>9</v>
+      </c>
+      <c r="O8" s="31">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="49">
+        <v>5</v>
+      </c>
+      <c r="E9" s="50">
+        <v>5</v>
+      </c>
+      <c r="F9" s="50">
+        <v>5</v>
+      </c>
+      <c r="G9" s="50">
+        <v>8</v>
+      </c>
+      <c r="H9" s="50">
+        <v>5</v>
+      </c>
+      <c r="I9" s="50">
+        <v>6</v>
+      </c>
+      <c r="J9" s="50">
+        <v>5</v>
+      </c>
+      <c r="K9" s="50">
+        <v>5</v>
+      </c>
+      <c r="L9" s="50">
+        <v>16</v>
+      </c>
+      <c r="M9" s="50">
+        <v>10</v>
+      </c>
+      <c r="N9" s="50">
+        <v>9</v>
+      </c>
+      <c r="O9" s="51">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30">
+        <v>5</v>
+      </c>
+      <c r="E10" s="38">
+        <v>4</v>
+      </c>
+      <c r="F10" s="38">
+        <v>4</v>
+      </c>
+      <c r="G10" s="38">
+        <v>6</v>
+      </c>
+      <c r="H10" s="38">
+        <v>4</v>
+      </c>
+      <c r="I10" s="38">
+        <v>6</v>
+      </c>
+      <c r="J10" s="38">
+        <v>5</v>
+      </c>
+      <c r="K10" s="38">
+        <v>1</v>
+      </c>
+      <c r="L10" s="38">
+        <v>16</v>
+      </c>
+      <c r="M10" s="38">
         <v>15</v>
       </c>
-      <c r="M2" s="50">
+      <c r="N10" s="38">
+        <v>14</v>
+      </c>
+      <c r="O10" s="31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="30">
+        <v>5</v>
+      </c>
+      <c r="E11" s="38">
+        <v>4</v>
+      </c>
+      <c r="F11" s="38">
+        <v>4</v>
+      </c>
+      <c r="G11" s="38">
+        <v>6</v>
+      </c>
+      <c r="H11" s="38">
+        <v>4</v>
+      </c>
+      <c r="I11" s="38">
+        <v>6</v>
+      </c>
+      <c r="J11" s="38">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38">
+        <v>1</v>
+      </c>
+      <c r="L11" s="38">
+        <v>16</v>
+      </c>
+      <c r="M11" s="38">
         <v>15</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N11" s="38">
+        <v>14</v>
+      </c>
+      <c r="O11" s="31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="32">
+        <v>5</v>
+      </c>
+      <c r="E12" s="39">
+        <v>4</v>
+      </c>
+      <c r="F12" s="39">
+        <v>4</v>
+      </c>
+      <c r="G12" s="39">
+        <v>6</v>
+      </c>
+      <c r="H12" s="39">
+        <v>4</v>
+      </c>
+      <c r="I12" s="39">
+        <v>6</v>
+      </c>
+      <c r="J12" s="39">
+        <v>5</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1</v>
+      </c>
+      <c r="L12" s="39">
+        <v>16</v>
+      </c>
+      <c r="M12" s="39">
         <v>15</v>
       </c>
-      <c r="O2" s="51">
-        <f>SUM(D2:N2)</f>
+      <c r="N12" s="39">
+        <v>14</v>
+      </c>
+      <c r="O12" s="35">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="43">
+        <v>3</v>
+      </c>
+      <c r="E13" s="44">
+        <v>4</v>
+      </c>
+      <c r="F13" s="44">
+        <v>5</v>
+      </c>
+      <c r="G13" s="44">
+        <v>4</v>
+      </c>
+      <c r="H13" s="44">
+        <v>4</v>
+      </c>
+      <c r="I13" s="44">
+        <v>5</v>
+      </c>
+      <c r="J13" s="44">
+        <v>5</v>
+      </c>
+      <c r="K13" s="44">
+        <v>5</v>
+      </c>
+      <c r="L13" s="44">
+        <v>16</v>
+      </c>
+      <c r="M13" s="44">
+        <v>12</v>
+      </c>
+      <c r="N13" s="44">
+        <v>4</v>
+      </c>
+      <c r="O13" s="45">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="35">
-        <v>4</v>
-      </c>
-      <c r="E3" s="44">
+      <c r="D14" s="30">
         <v>3</v>
       </c>
-      <c r="F3" s="44">
+      <c r="E14" s="38">
+        <v>4</v>
+      </c>
+      <c r="F14" s="38">
+        <v>5</v>
+      </c>
+      <c r="G14" s="38">
+        <v>4</v>
+      </c>
+      <c r="H14" s="38">
+        <v>4</v>
+      </c>
+      <c r="I14" s="38">
+        <v>5</v>
+      </c>
+      <c r="J14" s="38">
+        <v>5</v>
+      </c>
+      <c r="K14" s="38">
+        <v>5</v>
+      </c>
+      <c r="L14" s="38">
+        <v>16</v>
+      </c>
+      <c r="M14" s="38">
+        <v>12</v>
+      </c>
+      <c r="N14" s="38">
+        <v>4</v>
+      </c>
+      <c r="O14" s="31">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="49">
         <v>3</v>
       </c>
-      <c r="G3" s="44">
+      <c r="E15" s="50">
+        <v>4</v>
+      </c>
+      <c r="F15" s="50">
+        <v>5</v>
+      </c>
+      <c r="G15" s="50">
+        <v>4</v>
+      </c>
+      <c r="H15" s="50">
+        <v>4</v>
+      </c>
+      <c r="I15" s="50">
+        <v>5</v>
+      </c>
+      <c r="J15" s="50">
+        <v>5</v>
+      </c>
+      <c r="K15" s="50">
+        <v>5</v>
+      </c>
+      <c r="L15" s="50">
+        <v>16</v>
+      </c>
+      <c r="M15" s="50">
+        <v>12</v>
+      </c>
+      <c r="N15" s="50">
+        <v>4</v>
+      </c>
+      <c r="O15" s="51">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="43">
+        <v>3</v>
+      </c>
+      <c r="E16" s="44">
+        <v>5</v>
+      </c>
+      <c r="F16" s="44">
+        <v>5</v>
+      </c>
+      <c r="G16" s="44">
+        <v>4</v>
+      </c>
+      <c r="H16" s="44">
+        <v>4</v>
+      </c>
+      <c r="I16" s="44">
         <v>6</v>
       </c>
-      <c r="H3" s="44">
-        <v>4</v>
-      </c>
-      <c r="I3" s="44">
-        <v>5</v>
-      </c>
-      <c r="J3" s="44">
+      <c r="J16" s="44">
+        <v>7</v>
+      </c>
+      <c r="K16" s="44">
+        <v>3</v>
+      </c>
+      <c r="L16" s="44">
+        <v>16</v>
+      </c>
+      <c r="M16" s="44">
+        <v>12</v>
+      </c>
+      <c r="N16" s="44">
+        <v>15</v>
+      </c>
+      <c r="O16" s="45">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="30">
+        <v>3</v>
+      </c>
+      <c r="E17" s="38">
+        <v>5</v>
+      </c>
+      <c r="F17" s="38">
+        <v>5</v>
+      </c>
+      <c r="G17" s="38">
+        <v>4</v>
+      </c>
+      <c r="H17" s="38">
+        <v>4</v>
+      </c>
+      <c r="I17" s="38">
+        <v>6</v>
+      </c>
+      <c r="J17" s="38">
+        <v>7</v>
+      </c>
+      <c r="K17" s="38">
+        <v>3</v>
+      </c>
+      <c r="L17" s="38">
+        <v>16</v>
+      </c>
+      <c r="M17" s="38">
+        <v>12</v>
+      </c>
+      <c r="N17" s="38">
+        <v>15</v>
+      </c>
+      <c r="O17" s="31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="30">
+        <v>3</v>
+      </c>
+      <c r="E18" s="38">
+        <v>5</v>
+      </c>
+      <c r="F18" s="38">
+        <v>5</v>
+      </c>
+      <c r="G18" s="38">
+        <v>4</v>
+      </c>
+      <c r="H18" s="38">
+        <v>4</v>
+      </c>
+      <c r="I18" s="38">
+        <v>6</v>
+      </c>
+      <c r="J18" s="38">
+        <v>7</v>
+      </c>
+      <c r="K18" s="38">
+        <v>3</v>
+      </c>
+      <c r="L18" s="38">
+        <v>16</v>
+      </c>
+      <c r="M18" s="38">
+        <v>12</v>
+      </c>
+      <c r="N18" s="38">
+        <v>15</v>
+      </c>
+      <c r="O18" s="31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="49">
+        <v>3</v>
+      </c>
+      <c r="E19" s="50">
+        <v>5</v>
+      </c>
+      <c r="F19" s="50">
+        <v>5</v>
+      </c>
+      <c r="G19" s="50">
+        <v>4</v>
+      </c>
+      <c r="H19" s="50">
+        <v>4</v>
+      </c>
+      <c r="I19" s="50">
+        <v>6</v>
+      </c>
+      <c r="J19" s="50">
+        <v>7</v>
+      </c>
+      <c r="K19" s="50">
+        <v>3</v>
+      </c>
+      <c r="L19" s="50">
+        <v>16</v>
+      </c>
+      <c r="M19" s="50">
+        <v>12</v>
+      </c>
+      <c r="N19" s="50">
+        <v>15</v>
+      </c>
+      <c r="O19" s="51">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="43">
+        <v>4</v>
+      </c>
+      <c r="E20" s="44">
+        <v>5</v>
+      </c>
+      <c r="F20" s="44">
+        <v>5</v>
+      </c>
+      <c r="G20" s="44">
+        <v>4</v>
+      </c>
+      <c r="H20" s="44">
+        <v>5</v>
+      </c>
+      <c r="I20" s="44">
+        <v>6</v>
+      </c>
+      <c r="J20" s="44">
         <v>8</v>
       </c>
-      <c r="K3" s="44">
-        <v>5</v>
-      </c>
-      <c r="L3" s="44">
+      <c r="K20" s="44">
+        <v>5</v>
+      </c>
+      <c r="L20" s="44">
+        <v>12</v>
+      </c>
+      <c r="M20" s="44">
+        <v>8</v>
+      </c>
+      <c r="N20" s="44">
+        <v>5</v>
+      </c>
+      <c r="O20" s="45">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="30">
+        <v>4</v>
+      </c>
+      <c r="E21" s="38">
+        <v>5</v>
+      </c>
+      <c r="F21" s="38">
+        <v>5</v>
+      </c>
+      <c r="G21" s="38">
+        <v>4</v>
+      </c>
+      <c r="H21" s="38">
+        <v>5</v>
+      </c>
+      <c r="I21" s="38">
+        <v>6</v>
+      </c>
+      <c r="J21" s="38">
+        <v>8</v>
+      </c>
+      <c r="K21" s="38">
+        <v>5</v>
+      </c>
+      <c r="L21" s="38">
+        <v>12</v>
+      </c>
+      <c r="M21" s="38">
+        <v>8</v>
+      </c>
+      <c r="N21" s="38">
+        <v>5</v>
+      </c>
+      <c r="O21" s="31">
+        <f>SUM(D21:N21)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="30">
+        <v>4</v>
+      </c>
+      <c r="E22" s="38">
+        <v>5</v>
+      </c>
+      <c r="F22" s="38">
+        <v>5</v>
+      </c>
+      <c r="G22" s="38">
+        <v>4</v>
+      </c>
+      <c r="H22" s="38">
+        <v>5</v>
+      </c>
+      <c r="I22" s="38">
+        <v>6</v>
+      </c>
+      <c r="J22" s="38">
+        <v>8</v>
+      </c>
+      <c r="K22" s="38">
+        <v>5</v>
+      </c>
+      <c r="L22" s="38">
+        <v>12</v>
+      </c>
+      <c r="M22" s="38">
+        <v>8</v>
+      </c>
+      <c r="N22" s="38">
+        <v>5</v>
+      </c>
+      <c r="O22" s="31">
+        <f>SUM(D22:N22)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="30">
+        <v>4</v>
+      </c>
+      <c r="E23" s="38">
+        <v>5</v>
+      </c>
+      <c r="F23" s="38">
+        <v>5</v>
+      </c>
+      <c r="G23" s="38">
+        <v>4</v>
+      </c>
+      <c r="H23" s="38">
+        <v>5</v>
+      </c>
+      <c r="I23" s="38">
+        <v>6</v>
+      </c>
+      <c r="J23" s="38">
+        <v>8</v>
+      </c>
+      <c r="K23" s="38">
+        <v>5</v>
+      </c>
+      <c r="L23" s="38">
+        <v>12</v>
+      </c>
+      <c r="M23" s="38">
+        <v>8</v>
+      </c>
+      <c r="N23" s="38">
+        <v>5</v>
+      </c>
+      <c r="O23" s="31">
+        <f>SUM(D23:N23)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="49">
+        <v>4</v>
+      </c>
+      <c r="E24" s="50">
+        <v>5</v>
+      </c>
+      <c r="F24" s="50">
+        <v>5</v>
+      </c>
+      <c r="G24" s="50">
+        <v>4</v>
+      </c>
+      <c r="H24" s="50">
+        <v>5</v>
+      </c>
+      <c r="I24" s="50">
+        <v>6</v>
+      </c>
+      <c r="J24" s="50">
+        <v>8</v>
+      </c>
+      <c r="K24" s="50">
+        <v>5</v>
+      </c>
+      <c r="L24" s="50">
+        <v>12</v>
+      </c>
+      <c r="M24" s="50">
+        <v>8</v>
+      </c>
+      <c r="N24" s="50">
+        <v>5</v>
+      </c>
+      <c r="O24" s="51">
+        <f>SUM(D24:N24)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="43">
+        <v>4</v>
+      </c>
+      <c r="E25" s="44">
+        <v>4</v>
+      </c>
+      <c r="F25" s="44">
+        <v>4</v>
+      </c>
+      <c r="G25" s="44">
+        <v>3</v>
+      </c>
+      <c r="H25" s="44">
+        <v>3</v>
+      </c>
+      <c r="I25" s="44">
+        <v>5</v>
+      </c>
+      <c r="J25" s="44">
+        <v>7</v>
+      </c>
+      <c r="K25" s="44">
+        <v>4</v>
+      </c>
+      <c r="L25" s="44">
+        <v>14</v>
+      </c>
+      <c r="M25" s="44">
+        <v>12</v>
+      </c>
+      <c r="N25" s="44">
+        <v>8</v>
+      </c>
+      <c r="O25" s="45">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="49">
+        <v>4</v>
+      </c>
+      <c r="E26" s="50">
+        <v>4</v>
+      </c>
+      <c r="F26" s="50">
+        <v>4</v>
+      </c>
+      <c r="G26" s="50">
+        <v>3</v>
+      </c>
+      <c r="H26" s="50">
+        <v>3</v>
+      </c>
+      <c r="I26" s="50">
+        <v>5</v>
+      </c>
+      <c r="J26" s="50">
+        <v>7</v>
+      </c>
+      <c r="K26" s="50">
+        <v>4</v>
+      </c>
+      <c r="L26" s="50">
+        <v>14</v>
+      </c>
+      <c r="M26" s="50">
+        <v>12</v>
+      </c>
+      <c r="N26" s="50">
+        <v>8</v>
+      </c>
+      <c r="O26" s="51">
+        <f>SUM(D26:N26)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="43">
+        <v>2</v>
+      </c>
+      <c r="E27" s="44">
+        <v>4</v>
+      </c>
+      <c r="F27" s="44">
+        <v>3</v>
+      </c>
+      <c r="G27" s="44">
+        <v>5</v>
+      </c>
+      <c r="H27" s="44">
+        <v>3</v>
+      </c>
+      <c r="I27" s="44">
+        <v>3</v>
+      </c>
+      <c r="J27" s="44">
+        <v>8</v>
+      </c>
+      <c r="K27" s="44">
+        <v>4</v>
+      </c>
+      <c r="L27" s="44">
+        <v>12</v>
+      </c>
+      <c r="M27" s="44">
+        <v>12</v>
+      </c>
+      <c r="N27" s="44">
         <v>15</v>
       </c>
-      <c r="M3" s="44">
+      <c r="O27" s="45">
+        <f>SUM(D27:N27)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="30">
+        <v>2</v>
+      </c>
+      <c r="E28" s="38">
+        <v>4</v>
+      </c>
+      <c r="F28" s="38">
+        <v>3</v>
+      </c>
+      <c r="G28" s="38">
+        <v>5</v>
+      </c>
+      <c r="H28" s="38">
+        <v>3</v>
+      </c>
+      <c r="I28" s="38">
+        <v>3</v>
+      </c>
+      <c r="J28" s="38">
+        <v>8</v>
+      </c>
+      <c r="K28" s="38">
+        <v>4</v>
+      </c>
+      <c r="L28" s="38">
+        <v>12</v>
+      </c>
+      <c r="M28" s="38">
+        <v>12</v>
+      </c>
+      <c r="N28" s="38">
         <v>15</v>
       </c>
-      <c r="N3" s="44">
+      <c r="O28" s="31">
+        <f>SUM(D28:N28)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="30">
+        <v>2</v>
+      </c>
+      <c r="E29" s="38">
+        <v>4</v>
+      </c>
+      <c r="F29" s="38">
+        <v>3</v>
+      </c>
+      <c r="G29" s="38">
+        <v>5</v>
+      </c>
+      <c r="H29" s="38">
+        <v>3</v>
+      </c>
+      <c r="I29" s="38">
+        <v>3</v>
+      </c>
+      <c r="J29" s="38">
+        <v>8</v>
+      </c>
+      <c r="K29" s="38">
+        <v>4</v>
+      </c>
+      <c r="L29" s="38">
+        <v>12</v>
+      </c>
+      <c r="M29" s="38">
+        <v>12</v>
+      </c>
+      <c r="N29" s="38">
         <v>15</v>
       </c>
-      <c r="O3" s="36">
-        <f t="shared" ref="O3:O33" si="0">SUM(D3:N3)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="35">
-        <v>4</v>
-      </c>
-      <c r="E4" s="44">
+      <c r="O29" s="31">
+        <f>SUM(D29:N29)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="49">
+        <v>2</v>
+      </c>
+      <c r="E30" s="50">
+        <v>4</v>
+      </c>
+      <c r="F30" s="50">
         <v>3</v>
       </c>
-      <c r="F4" s="44">
+      <c r="G30" s="50">
+        <v>5</v>
+      </c>
+      <c r="H30" s="50">
         <v>3</v>
       </c>
-      <c r="G4" s="44">
-        <v>6</v>
-      </c>
-      <c r="H4" s="44">
-        <v>4</v>
-      </c>
-      <c r="I4" s="44">
-        <v>5</v>
-      </c>
-      <c r="J4" s="44">
+      <c r="I30" s="50">
+        <v>3</v>
+      </c>
+      <c r="J30" s="50">
         <v>8</v>
       </c>
-      <c r="K4" s="44">
-        <v>5</v>
-      </c>
-      <c r="L4" s="44">
+      <c r="K30" s="50">
+        <v>4</v>
+      </c>
+      <c r="L30" s="50">
+        <v>12</v>
+      </c>
+      <c r="M30" s="50">
+        <v>12</v>
+      </c>
+      <c r="N30" s="50">
         <v>15</v>
       </c>
-      <c r="M4" s="44">
-        <v>15</v>
-      </c>
-      <c r="N4" s="44">
-        <v>15</v>
-      </c>
-      <c r="O4" s="36">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="O30" s="51">
+        <f>SUM(D30:N30)</f>
         <v>71</v>
       </c>
-      <c r="D5" s="35">
-        <v>4</v>
-      </c>
-      <c r="E5" s="44">
-        <v>3</v>
-      </c>
-      <c r="F5" s="44">
-        <v>3</v>
-      </c>
-      <c r="G5" s="44">
-        <v>6</v>
-      </c>
-      <c r="H5" s="44">
-        <v>4</v>
-      </c>
-      <c r="I5" s="44">
-        <v>5</v>
-      </c>
-      <c r="J5" s="44">
-        <v>8</v>
-      </c>
-      <c r="K5" s="44">
-        <v>5</v>
-      </c>
-      <c r="L5" s="44">
-        <v>15</v>
-      </c>
-      <c r="M5" s="44">
-        <v>15</v>
-      </c>
-      <c r="N5" s="44">
-        <v>15</v>
-      </c>
-      <c r="O5" s="36">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="55">
-        <v>4</v>
-      </c>
-      <c r="E6" s="56">
-        <v>3</v>
-      </c>
-      <c r="F6" s="56">
-        <v>3</v>
-      </c>
-      <c r="G6" s="56">
-        <v>6</v>
-      </c>
-      <c r="H6" s="56">
-        <v>4</v>
-      </c>
-      <c r="I6" s="56">
-        <v>5</v>
-      </c>
-      <c r="J6" s="56">
-        <v>8</v>
-      </c>
-      <c r="K6" s="56">
-        <v>5</v>
-      </c>
-      <c r="L6" s="56">
-        <v>15</v>
-      </c>
-      <c r="M6" s="56">
-        <v>15</v>
-      </c>
-      <c r="N6" s="56">
-        <v>15</v>
-      </c>
-      <c r="O6" s="57">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="49">
-        <v>5</v>
-      </c>
-      <c r="E7" s="50">
-        <v>5</v>
-      </c>
-      <c r="F7" s="50">
-        <v>5</v>
-      </c>
-      <c r="G7" s="50">
-        <v>9</v>
-      </c>
-      <c r="H7" s="50">
-        <v>5</v>
-      </c>
-      <c r="I7" s="50">
-        <v>6</v>
-      </c>
-      <c r="J7" s="50">
-        <v>5</v>
-      </c>
-      <c r="K7" s="50">
-        <v>5</v>
-      </c>
-      <c r="L7" s="50">
-        <v>16</v>
-      </c>
-      <c r="M7" s="50">
-        <v>10</v>
-      </c>
-      <c r="N7" s="50">
-        <v>14</v>
-      </c>
-      <c r="O7" s="51">
-        <f>SUM(D7:N7)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="35">
-        <v>5</v>
-      </c>
-      <c r="E8" s="44">
-        <v>5</v>
-      </c>
-      <c r="F8" s="44">
-        <v>5</v>
-      </c>
-      <c r="G8" s="44">
-        <v>9</v>
-      </c>
-      <c r="H8" s="44">
-        <v>5</v>
-      </c>
-      <c r="I8" s="44">
-        <v>6</v>
-      </c>
-      <c r="J8" s="44">
-        <v>5</v>
-      </c>
-      <c r="K8" s="44">
-        <v>5</v>
-      </c>
-      <c r="L8" s="44">
-        <v>16</v>
-      </c>
-      <c r="M8" s="44">
-        <v>10</v>
-      </c>
-      <c r="N8" s="44">
-        <v>14</v>
-      </c>
-      <c r="O8" s="36">
-        <f>SUM(D8:N8)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="55">
-        <v>5</v>
-      </c>
-      <c r="E9" s="56">
-        <v>5</v>
-      </c>
-      <c r="F9" s="56">
-        <v>5</v>
-      </c>
-      <c r="G9" s="56">
-        <v>9</v>
-      </c>
-      <c r="H9" s="56">
-        <v>5</v>
-      </c>
-      <c r="I9" s="56">
-        <v>6</v>
-      </c>
-      <c r="J9" s="56">
-        <v>5</v>
-      </c>
-      <c r="K9" s="56">
-        <v>5</v>
-      </c>
-      <c r="L9" s="56">
-        <v>16</v>
-      </c>
-      <c r="M9" s="56">
-        <v>10</v>
-      </c>
-      <c r="N9" s="56">
-        <v>14</v>
-      </c>
-      <c r="O9" s="57">
-        <f>SUM(D9:N9)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="35">
-        <v>5</v>
-      </c>
-      <c r="E10" s="44">
-        <v>4</v>
-      </c>
-      <c r="F10" s="44">
-        <v>4</v>
-      </c>
-      <c r="G10" s="44">
-        <v>7</v>
-      </c>
-      <c r="H10" s="44">
-        <v>4</v>
-      </c>
-      <c r="I10" s="44">
-        <v>6</v>
-      </c>
-      <c r="J10" s="44">
-        <v>5</v>
-      </c>
-      <c r="K10" s="44">
-        <v>1</v>
-      </c>
-      <c r="L10" s="44">
-        <v>16</v>
-      </c>
-      <c r="M10" s="44">
-        <v>15</v>
-      </c>
-      <c r="N10" s="44">
-        <v>14</v>
-      </c>
-      <c r="O10" s="36">
-        <f>SUM(D10:N10)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="35">
-        <v>5</v>
-      </c>
-      <c r="E11" s="44">
-        <v>4</v>
-      </c>
-      <c r="F11" s="44">
-        <v>4</v>
-      </c>
-      <c r="G11" s="44">
-        <v>7</v>
-      </c>
-      <c r="H11" s="44">
-        <v>4</v>
-      </c>
-      <c r="I11" s="44">
-        <v>6</v>
-      </c>
-      <c r="J11" s="44">
-        <v>5</v>
-      </c>
-      <c r="K11" s="44">
-        <v>1</v>
-      </c>
-      <c r="L11" s="44">
-        <v>16</v>
-      </c>
-      <c r="M11" s="44">
-        <v>15</v>
-      </c>
-      <c r="N11" s="44">
-        <v>14</v>
-      </c>
-      <c r="O11" s="36">
-        <f>SUM(D11:N11)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="41" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="37">
-        <v>5</v>
-      </c>
-      <c r="E12" s="45">
-        <v>4</v>
-      </c>
-      <c r="F12" s="45">
-        <v>4</v>
-      </c>
-      <c r="G12" s="45">
-        <v>7</v>
-      </c>
-      <c r="H12" s="45">
-        <v>4</v>
-      </c>
-      <c r="I12" s="45">
-        <v>6</v>
-      </c>
-      <c r="J12" s="45">
-        <v>5</v>
-      </c>
-      <c r="K12" s="45">
-        <v>1</v>
-      </c>
-      <c r="L12" s="45">
-        <v>16</v>
-      </c>
-      <c r="M12" s="45">
-        <v>15</v>
-      </c>
-      <c r="N12" s="45">
-        <v>14</v>
-      </c>
-      <c r="O12" s="40">
-        <f>SUM(D12:N12)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="49">
-        <v>5</v>
-      </c>
-      <c r="E13" s="50">
-        <v>4</v>
-      </c>
-      <c r="F13" s="50">
-        <v>5</v>
-      </c>
-      <c r="G13" s="50">
-        <v>6</v>
-      </c>
-      <c r="H13" s="50">
-        <v>4</v>
-      </c>
-      <c r="I13" s="50">
-        <v>5</v>
-      </c>
-      <c r="J13" s="50">
-        <v>5</v>
-      </c>
-      <c r="K13" s="50">
-        <v>5</v>
-      </c>
-      <c r="L13" s="50">
-        <v>16</v>
-      </c>
-      <c r="M13" s="50">
-        <v>12</v>
-      </c>
-      <c r="N13" s="50">
-        <v>12</v>
-      </c>
-      <c r="O13" s="51">
-        <f>SUM(D13:N13)</f>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="35">
-        <v>5</v>
-      </c>
-      <c r="E14" s="44">
-        <v>4</v>
-      </c>
-      <c r="F14" s="44">
-        <v>5</v>
-      </c>
-      <c r="G14" s="44">
-        <v>6</v>
-      </c>
-      <c r="H14" s="44">
-        <v>4</v>
-      </c>
-      <c r="I14" s="44">
-        <v>5</v>
-      </c>
-      <c r="J14" s="44">
-        <v>5</v>
-      </c>
-      <c r="K14" s="44">
-        <v>5</v>
-      </c>
-      <c r="L14" s="44">
-        <v>16</v>
-      </c>
-      <c r="M14" s="44">
-        <v>12</v>
-      </c>
-      <c r="N14" s="44">
-        <v>12</v>
-      </c>
-      <c r="O14" s="36">
-        <f>SUM(D14:N14)</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="55">
-        <v>5</v>
-      </c>
-      <c r="E15" s="56">
-        <v>4</v>
-      </c>
-      <c r="F15" s="56">
-        <v>5</v>
-      </c>
-      <c r="G15" s="56">
-        <v>6</v>
-      </c>
-      <c r="H15" s="56">
-        <v>4</v>
-      </c>
-      <c r="I15" s="56">
-        <v>5</v>
-      </c>
-      <c r="J15" s="56">
-        <v>5</v>
-      </c>
-      <c r="K15" s="56">
-        <v>5</v>
-      </c>
-      <c r="L15" s="56">
-        <v>16</v>
-      </c>
-      <c r="M15" s="56">
-        <v>12</v>
-      </c>
-      <c r="N15" s="56">
-        <v>12</v>
-      </c>
-      <c r="O15" s="57">
-        <f>SUM(D15:N15)</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="49">
-        <v>5</v>
-      </c>
-      <c r="E16" s="50">
-        <v>5</v>
-      </c>
-      <c r="F16" s="50">
-        <v>5</v>
-      </c>
-      <c r="G16" s="50">
-        <v>7</v>
-      </c>
-      <c r="H16" s="50">
-        <v>4</v>
-      </c>
-      <c r="I16" s="50">
-        <v>6</v>
-      </c>
-      <c r="J16" s="50">
-        <v>7</v>
-      </c>
-      <c r="K16" s="50">
-        <v>3</v>
-      </c>
-      <c r="L16" s="50">
-        <v>16</v>
-      </c>
-      <c r="M16" s="50">
-        <v>12</v>
-      </c>
-      <c r="N16" s="50">
-        <v>17</v>
-      </c>
-      <c r="O16" s="51">
-        <f>SUM(D16:N16)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="35">
-        <v>5</v>
-      </c>
-      <c r="E17" s="44">
-        <v>5</v>
-      </c>
-      <c r="F17" s="44">
-        <v>5</v>
-      </c>
-      <c r="G17" s="44">
-        <v>7</v>
-      </c>
-      <c r="H17" s="44">
-        <v>4</v>
-      </c>
-      <c r="I17" s="44">
-        <v>6</v>
-      </c>
-      <c r="J17" s="44">
-        <v>7</v>
-      </c>
-      <c r="K17" s="44">
-        <v>3</v>
-      </c>
-      <c r="L17" s="44">
-        <v>16</v>
-      </c>
-      <c r="M17" s="44">
-        <v>12</v>
-      </c>
-      <c r="N17" s="44">
-        <v>17</v>
-      </c>
-      <c r="O17" s="36">
-        <f>SUM(D17:N17)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="35">
-        <v>5</v>
-      </c>
-      <c r="E18" s="44">
-        <v>5</v>
-      </c>
-      <c r="F18" s="44">
-        <v>5</v>
-      </c>
-      <c r="G18" s="44">
-        <v>7</v>
-      </c>
-      <c r="H18" s="44">
-        <v>4</v>
-      </c>
-      <c r="I18" s="44">
-        <v>6</v>
-      </c>
-      <c r="J18" s="44">
-        <v>7</v>
-      </c>
-      <c r="K18" s="44">
-        <v>3</v>
-      </c>
-      <c r="L18" s="44">
-        <v>16</v>
-      </c>
-      <c r="M18" s="44">
-        <v>12</v>
-      </c>
-      <c r="N18" s="44">
-        <v>17</v>
-      </c>
-      <c r="O18" s="36">
-        <f>SUM(D18:N18)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="55">
-        <v>5</v>
-      </c>
-      <c r="E19" s="56">
-        <v>5</v>
-      </c>
-      <c r="F19" s="56">
-        <v>5</v>
-      </c>
-      <c r="G19" s="56">
-        <v>7</v>
-      </c>
-      <c r="H19" s="56">
-        <v>4</v>
-      </c>
-      <c r="I19" s="56">
-        <v>6</v>
-      </c>
-      <c r="J19" s="56">
-        <v>7</v>
-      </c>
-      <c r="K19" s="56">
-        <v>3</v>
-      </c>
-      <c r="L19" s="56">
-        <v>16</v>
-      </c>
-      <c r="M19" s="56">
-        <v>12</v>
-      </c>
-      <c r="N19" s="56">
-        <v>17</v>
-      </c>
-      <c r="O19" s="57">
-        <f>SUM(D19:N19)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="49">
-        <v>4</v>
-      </c>
-      <c r="E20" s="50">
-        <v>5</v>
-      </c>
-      <c r="F20" s="50">
-        <v>5</v>
-      </c>
-      <c r="G20" s="50">
-        <v>7</v>
-      </c>
-      <c r="H20" s="50">
-        <v>5</v>
-      </c>
-      <c r="I20" s="50">
-        <v>6</v>
-      </c>
-      <c r="J20" s="50">
-        <v>8</v>
-      </c>
-      <c r="K20" s="50">
-        <v>5</v>
-      </c>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="35">
-        <v>4</v>
-      </c>
-      <c r="E21" s="44">
-        <v>5</v>
-      </c>
-      <c r="F21" s="44">
-        <v>5</v>
-      </c>
-      <c r="G21" s="44">
-        <v>7</v>
-      </c>
-      <c r="H21" s="44">
-        <v>5</v>
-      </c>
-      <c r="I21" s="44">
-        <v>6</v>
-      </c>
-      <c r="J21" s="44">
-        <v>8</v>
-      </c>
-      <c r="K21" s="44">
-        <v>5</v>
-      </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="36">
-        <f>SUM(D21:N21)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="35">
-        <v>4</v>
-      </c>
-      <c r="E22" s="44">
-        <v>5</v>
-      </c>
-      <c r="F22" s="44">
-        <v>5</v>
-      </c>
-      <c r="G22" s="44">
-        <v>7</v>
-      </c>
-      <c r="H22" s="44">
-        <v>5</v>
-      </c>
-      <c r="I22" s="44">
-        <v>6</v>
-      </c>
-      <c r="J22" s="44">
-        <v>8</v>
-      </c>
-      <c r="K22" s="44">
-        <v>5</v>
-      </c>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="36">
-        <f>SUM(D22:N22)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="35">
-        <v>4</v>
-      </c>
-      <c r="E23" s="44">
-        <v>5</v>
-      </c>
-      <c r="F23" s="44">
-        <v>5</v>
-      </c>
-      <c r="G23" s="44">
-        <v>7</v>
-      </c>
-      <c r="H23" s="44">
-        <v>5</v>
-      </c>
-      <c r="I23" s="44">
-        <v>6</v>
-      </c>
-      <c r="J23" s="44">
-        <v>8</v>
-      </c>
-      <c r="K23" s="44">
-        <v>5</v>
-      </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="36">
-        <f>SUM(D23:N23)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="55">
-        <v>4</v>
-      </c>
-      <c r="E24" s="56">
-        <v>5</v>
-      </c>
-      <c r="F24" s="56">
-        <v>5</v>
-      </c>
-      <c r="G24" s="56">
-        <v>7</v>
-      </c>
-      <c r="H24" s="56">
-        <v>5</v>
-      </c>
-      <c r="I24" s="56">
-        <v>6</v>
-      </c>
-      <c r="J24" s="56">
-        <v>8</v>
-      </c>
-      <c r="K24" s="56">
-        <v>5</v>
-      </c>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57">
-        <f>SUM(D24:N24)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="34" t="s">
+      <c r="C31" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5594,85 +5758,85 @@
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
       <c r="N31" s="44"/>
-      <c r="O31" s="36">
+      <c r="O31" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="36">
+      <c r="A32" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="36">
+      <c r="A33" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="31">
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="58">
         <f>SUM(D34:N34)</f>
         <v>0</v>
       </c>
@@ -5682,13 +5846,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P33"/>
+  <autoFilter ref="A1:P33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6359,8 +6523,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\2_GBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\2_GBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DBD479-8D0E-4F32-AECF-381AA8D7B723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="15075" windowHeight="15780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="45" windowWidth="15075" windowHeight="15780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$P$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -507,7 +506,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
@@ -1120,9 +1119,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,6 +1136,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1176,7 +1175,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1215,6 +1214,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1324,7 +1324,7 @@
                   <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30303030303030304</c:v>
+                  <c:v>0.42424242424242425</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1342,12 +1342,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13793103448275862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
             </c:ext>
@@ -1363,11 +1363,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="397770832"/>
-        <c:axId val="398724776"/>
+        <c:axId val="359061152"/>
+        <c:axId val="359061544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="397770832"/>
+        <c:axId val="359061152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398724776"/>
+        <c:crossAx val="359061544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1418,7 +1418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398724776"/>
+        <c:axId val="359061544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397770832"/>
+        <c:crossAx val="359061152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,7 +1505,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1676,7 +1676,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78EB-4234-8185-F5ED9BB6C945}"/>
             </c:ext>
@@ -1692,11 +1692,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="398718112"/>
-        <c:axId val="398722816"/>
+        <c:axId val="359062328"/>
+        <c:axId val="359062720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="398718112"/>
+        <c:axId val="359062328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398722816"/>
+        <c:crossAx val="359062720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398722816"/>
+        <c:axId val="359062720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398718112"/>
+        <c:crossAx val="359062328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2939,7 +2939,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +2975,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3035,7 +3035,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3104,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3247,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,11 +3532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B34"/>
+      <selection activeCell="D34" sqref="D34:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>64.333333333333329</v>
+        <v>72.696969696969703</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>24.778603000707424</v>
+        <v>5.2170684325876939</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>0.30303030303030304</v>
+        <v>0.42424242424242425</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B18" s="8">
         <f>Marks!O31</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>0.13793103448275862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B24" s="8">
         <f>Marks!O32</f>
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B26" s="8">
         <f>Marks!O33</f>
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4077,18 +4077,18 @@
       </c>
       <c r="B34" s="8">
         <f>Marks!O34</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -4263,11 +4263,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4276,13 +4276,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -5747,20 +5747,42 @@
       <c r="C31" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
+      <c r="D31" s="43">
+        <v>4</v>
+      </c>
+      <c r="E31" s="44">
+        <v>3</v>
+      </c>
+      <c r="F31" s="44">
+        <v>3</v>
+      </c>
+      <c r="G31" s="44">
+        <v>4</v>
+      </c>
+      <c r="H31" s="44">
+        <v>5</v>
+      </c>
+      <c r="I31" s="44">
+        <v>5</v>
+      </c>
+      <c r="J31" s="44">
+        <v>8</v>
+      </c>
+      <c r="K31" s="44">
+        <v>5</v>
+      </c>
+      <c r="L31" s="44">
+        <v>12</v>
+      </c>
+      <c r="M31" s="44">
+        <v>5</v>
+      </c>
+      <c r="N31" s="44">
+        <v>15</v>
+      </c>
       <c r="O31" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -5773,20 +5795,42 @@
       <c r="C32" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
+      <c r="D32" s="30">
+        <v>4</v>
+      </c>
+      <c r="E32" s="38">
+        <v>3</v>
+      </c>
+      <c r="F32" s="38">
+        <v>3</v>
+      </c>
+      <c r="G32" s="38">
+        <v>4</v>
+      </c>
+      <c r="H32" s="38">
+        <v>5</v>
+      </c>
+      <c r="I32" s="38">
+        <v>5</v>
+      </c>
+      <c r="J32" s="38">
+        <v>8</v>
+      </c>
+      <c r="K32" s="38">
+        <v>5</v>
+      </c>
+      <c r="L32" s="38">
+        <v>12</v>
+      </c>
+      <c r="M32" s="38">
+        <v>5</v>
+      </c>
+      <c r="N32" s="38">
+        <v>15</v>
+      </c>
       <c r="O32" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5799,46 +5843,90 @@
       <c r="C33" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
+      <c r="D33" s="30">
+        <v>4</v>
+      </c>
+      <c r="E33" s="38">
+        <v>3</v>
+      </c>
+      <c r="F33" s="38">
+        <v>3</v>
+      </c>
+      <c r="G33" s="38">
+        <v>4</v>
+      </c>
+      <c r="H33" s="38">
+        <v>5</v>
+      </c>
+      <c r="I33" s="38">
+        <v>5</v>
+      </c>
+      <c r="J33" s="38">
+        <v>8</v>
+      </c>
+      <c r="K33" s="38">
+        <v>5</v>
+      </c>
+      <c r="L33" s="38">
+        <v>12</v>
+      </c>
+      <c r="M33" s="38">
+        <v>5</v>
+      </c>
+      <c r="N33" s="38">
+        <v>15</v>
+      </c>
       <c r="O33" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="58">
+      <c r="D34" s="55">
+        <v>4</v>
+      </c>
+      <c r="E34" s="56">
+        <v>3</v>
+      </c>
+      <c r="F34" s="56">
+        <v>3</v>
+      </c>
+      <c r="G34" s="56">
+        <v>4</v>
+      </c>
+      <c r="H34" s="56">
+        <v>5</v>
+      </c>
+      <c r="I34" s="56">
+        <v>5</v>
+      </c>
+      <c r="J34" s="56">
+        <v>8</v>
+      </c>
+      <c r="K34" s="56">
+        <v>5</v>
+      </c>
+      <c r="L34" s="56">
+        <v>12</v>
+      </c>
+      <c r="M34" s="56">
+        <v>5</v>
+      </c>
+      <c r="N34" s="56">
+        <v>15</v>
+      </c>
+      <c r="O34" s="57">
         <f>SUM(D34:N34)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="P34" s="25">
         <f>1+15+4+15+10+25+15+15</f>
@@ -5846,13 +5934,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:P33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6523,8 +6611,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
@@ -1315,19 +1315,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21212121212121213</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.12121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27272727272727271</c:v>
+                  <c:v>0.39393939393939392</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.42424242424242425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.0606060606060608E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1363,11 +1363,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="359061152"/>
-        <c:axId val="359061544"/>
+        <c:axId val="400382480"/>
+        <c:axId val="400382872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359061152"/>
+        <c:axId val="400382480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359061544"/>
+        <c:crossAx val="400382872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1418,7 +1418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359061544"/>
+        <c:axId val="400382872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359061152"/>
+        <c:crossAx val="400382480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1692,11 +1692,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="359062328"/>
-        <c:axId val="359062720"/>
+        <c:axId val="400380128"/>
+        <c:axId val="400380520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359062328"/>
+        <c:axId val="400380128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359062720"/>
+        <c:crossAx val="400380520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359062720"/>
+        <c:axId val="400380520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359062328"/>
+        <c:crossAx val="400380128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2939,7 +2939,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +2975,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3035,7 +3035,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3104,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3247,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3536,7 +3536,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:K34"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B2" s="8">
         <f>Marks!O2</f>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B3" s="8">
         <f>Marks!O3</f>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>28</v>
@@ -3597,14 +3597,14 @@
       </c>
       <c r="B4" s="8">
         <f>Marks!O4</f>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>72.696969696969703</v>
+        <v>69.969696969696969</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3613,14 +3613,14 @@
       </c>
       <c r="B5" s="8">
         <f>Marks!O5</f>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>5.2170684325876939</v>
+        <v>4.4894657845118981</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B6" s="8">
         <f>Marks!O6</f>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B7" s="8">
         <f>Marks!O7</f>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B8" s="8">
         <f>Marks!O8</f>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B9" s="8">
         <f>Marks!O9</f>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v>0.21212121212121213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B10" s="8">
         <f>Marks!O10</f>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="I10" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.12121212121212122</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="B11" s="8">
         <f>Marks!O11</f>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v>0.27272727272727271</v>
+        <v>0.39393939393939392</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B12" s="8">
         <f>Marks!O12</f>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="I13" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
-        <v>0</v>
+        <v>6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B15" s="8">
         <f>Marks!O17</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B16" s="8">
         <f>Marks!O25</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B17" s="8">
         <f>Marks!O16</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B18" s="8">
         <f>Marks!O31</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B20" s="8">
         <f>Marks!O18</f>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B22" s="8">
         <f>Marks!O30</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B23" s="8">
         <f>Marks!O26</f>
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B24" s="8">
         <f>Marks!O32</f>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B25" s="8">
         <f>Marks!O27</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B26" s="8">
         <f>Marks!O33</f>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B28" s="8">
         <f>Marks!O29</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B29" s="8">
         <f>Marks!O19</f>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B31" s="8">
         <f>Marks!O28</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B34" s="8">
         <f>Marks!O34</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>39</v>
@@ -4280,9 +4280,9 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -4388,11 +4388,11 @@
         <v>15</v>
       </c>
       <c r="N2" s="44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O2" s="45">
         <f>SUM(D2:N2)</f>
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -4436,11 +4436,11 @@
         <v>15</v>
       </c>
       <c r="N3" s="38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O3" s="31">
         <f t="shared" ref="O3:O33" si="0">SUM(D3:N3)</f>
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4484,11 +4484,11 @@
         <v>15</v>
       </c>
       <c r="N4" s="38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O4" s="31">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -4529,14 +4529,14 @@
         <v>15</v>
       </c>
       <c r="M5" s="38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O5" s="31">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4577,14 +4577,14 @@
         <v>15</v>
       </c>
       <c r="M6" s="50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N6" s="50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O6" s="51">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -4622,17 +4622,17 @@
         <v>5</v>
       </c>
       <c r="L7" s="44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" s="44">
         <v>10</v>
       </c>
       <c r="N7" s="44">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O7" s="45">
         <f t="shared" ref="O7:O19" si="1">SUM(D7:N7)</f>
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4670,17 +4670,17 @@
         <v>5</v>
       </c>
       <c r="L8" s="38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="38">
         <v>10</v>
       </c>
       <c r="N8" s="38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O8" s="31">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4718,17 +4718,17 @@
         <v>5</v>
       </c>
       <c r="L9" s="50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="50">
         <v>10</v>
       </c>
       <c r="N9" s="50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O9" s="51">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4766,17 +4766,17 @@
         <v>1</v>
       </c>
       <c r="L10" s="38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" s="38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10" s="38">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O10" s="31">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4814,17 +4814,17 @@
         <v>1</v>
       </c>
       <c r="L11" s="38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N11" s="38">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O11" s="31">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4860,17 +4860,17 @@
         <v>1</v>
       </c>
       <c r="L12" s="39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="39">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12" s="39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O12" s="35">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -5058,11 +5058,11 @@
         <v>12</v>
       </c>
       <c r="N16" s="44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O16" s="45">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -5106,11 +5106,11 @@
         <v>12</v>
       </c>
       <c r="N17" s="38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O17" s="31">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -5154,11 +5154,11 @@
         <v>12</v>
       </c>
       <c r="N18" s="38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O18" s="31">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5202,11 +5202,11 @@
         <v>12</v>
       </c>
       <c r="N19" s="50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O19" s="51">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -5490,11 +5490,11 @@
         <v>12</v>
       </c>
       <c r="N25" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O25" s="45">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5538,11 +5538,11 @@
         <v>12</v>
       </c>
       <c r="N26" s="50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O26" s="51">
         <f>SUM(D26:N26)</f>
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -5586,11 +5586,11 @@
         <v>12</v>
       </c>
       <c r="N27" s="44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O27" s="45">
         <f>SUM(D27:N27)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -5634,11 +5634,11 @@
         <v>12</v>
       </c>
       <c r="N28" s="38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O28" s="31">
         <f>SUM(D28:N28)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -5682,11 +5682,11 @@
         <v>12</v>
       </c>
       <c r="N29" s="38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O29" s="31">
         <f>SUM(D29:N29)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5730,11 +5730,11 @@
         <v>12</v>
       </c>
       <c r="N30" s="50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O30" s="51">
         <f>SUM(D30:N30)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -5778,11 +5778,11 @@
         <v>5</v>
       </c>
       <c r="N31" s="44">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O31" s="45">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -5826,11 +5826,11 @@
         <v>5</v>
       </c>
       <c r="N32" s="38">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O32" s="31">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5874,11 +5874,11 @@
         <v>5</v>
       </c>
       <c r="N33" s="38">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O33" s="31">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5922,11 +5922,11 @@
         <v>5</v>
       </c>
       <c r="N34" s="56">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O34" s="57">
         <f>SUM(D34:N34)</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P34" s="25">
         <f>1+15+4+15+10+25+15+15</f>

--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/2_GBA/Mark Input Sheet ANL 2021.xlsx
@@ -14,10 +14,12 @@
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
     <sheet name="Marks" sheetId="3" r:id="rId2"/>
-    <sheet name="Example" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Marks_Sorted" sheetId="4" r:id="rId3"/>
+    <sheet name="Example" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$P$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$B$1:$Q$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Marks_Sorted!$A$1:$P$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="155">
   <si>
     <t>Mark</t>
   </si>
@@ -501,6 +503,9 @@
   </si>
   <si>
     <t>Question 3</t>
+  </si>
+  <si>
+    <t>GBA Grp</t>
   </si>
 </sst>
 </file>
@@ -614,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -986,13 +991,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1059,18 +1127,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,9 +1135,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,6 +1192,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1214,7 +1300,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1321,10 +1406,10 @@
                   <c:v>0.12121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39393939393939392</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42424242424242425</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.0606060606060608E-2</c:v>
@@ -1363,11 +1448,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="400382480"/>
-        <c:axId val="400382872"/>
+        <c:axId val="399792152"/>
+        <c:axId val="399788232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="400382480"/>
+        <c:axId val="399792152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400382872"/>
+        <c:crossAx val="399788232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1418,7 +1503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="400382872"/>
+        <c:axId val="399788232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400382480"/>
+        <c:crossAx val="399792152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1692,11 +1777,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="400380128"/>
-        <c:axId val="400380520"/>
+        <c:axId val="399790976"/>
+        <c:axId val="399791368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="400380128"/>
+        <c:axId val="399790976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400380520"/>
+        <c:crossAx val="399791368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="400380520"/>
+        <c:axId val="399791368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400380128"/>
+        <c:crossAx val="399790976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3535,7 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -3569,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f>Marks!O2</f>
+        <f>Marks!P2</f>
         <v>70</v>
       </c>
       <c r="E2" s="18"/>
@@ -3580,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <f>Marks!O3</f>
+        <f>Marks!P3</f>
         <v>70</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -3596,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <f>Marks!O4</f>
+        <f>Marks!P4</f>
         <v>70</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -3604,7 +3689,7 @@
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>69.969696969696969</v>
+        <v>70.030303030303031</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3612,15 +3697,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <f>Marks!O5</f>
-        <v>69</v>
+        <f>Marks!P5</f>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>4.4894657845118981</v>
+        <v>4.4824996408592197</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3628,8 +3713,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <f>Marks!O6</f>
-        <v>69</v>
+        <f>Marks!P6</f>
+        <v>70</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3642,8 +3727,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <f>Marks!O7</f>
-        <v>74</v>
+        <f>Marks!P7</f>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -3666,8 +3751,8 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <f>Marks!O8</f>
-        <v>74</v>
+        <f>Marks!P8</f>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3691,8 +3776,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <f>Marks!O9</f>
-        <v>74</v>
+        <f>Marks!P9</f>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3716,8 +3801,8 @@
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <f>Marks!O10</f>
-        <v>73</v>
+        <f>Marks!P10</f>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -3741,8 +3826,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="8">
-        <f>Marks!O11</f>
-        <v>73</v>
+        <f>Marks!P11</f>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -3758,7 +3843,7 @@
       </c>
       <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v>0.39393939393939392</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3766,8 +3851,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="8">
-        <f>Marks!O12</f>
-        <v>73</v>
+        <f>Marks!P12</f>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3783,7 +3868,7 @@
       </c>
       <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>0.42424242424242425</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3791,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8">
-        <f>Marks!O20</f>
+        <f>Marks!P20</f>
         <v>67</v>
       </c>
       <c r="E13" t="s">
@@ -3816,8 +3901,8 @@
         <v>13</v>
       </c>
       <c r="B14" s="8">
-        <f>Marks!O15</f>
-        <v>67</v>
+        <f>Marks!P15</f>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -3841,8 +3926,8 @@
         <v>14</v>
       </c>
       <c r="B15" s="8">
-        <f>Marks!O17</f>
-        <v>79</v>
+        <f>Marks!P17</f>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -3866,8 +3951,8 @@
         <v>15</v>
       </c>
       <c r="B16" s="8">
-        <f>Marks!O25</f>
-        <v>64</v>
+        <f>Marks!P25</f>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -3891,8 +3976,8 @@
         <v>16</v>
       </c>
       <c r="B17" s="8">
-        <f>Marks!O16</f>
-        <v>79</v>
+        <f>Marks!P16</f>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -3916,8 +4001,8 @@
         <v>17</v>
       </c>
       <c r="B18" s="8">
-        <f>Marks!O31</f>
-        <v>65</v>
+        <f>Marks!P31</f>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -3941,8 +4026,8 @@
         <v>18</v>
       </c>
       <c r="B19" s="8">
-        <f>Marks!O14</f>
-        <v>67</v>
+        <f>Marks!P14</f>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3950,8 +4035,8 @@
         <v>19</v>
       </c>
       <c r="B20" s="8">
-        <f>Marks!O18</f>
-        <v>79</v>
+        <f>Marks!P18</f>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3959,7 +4044,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8">
-        <f>Marks!O22</f>
+        <f>Marks!P22</f>
         <v>67</v>
       </c>
     </row>
@@ -3968,8 +4053,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="8">
-        <f>Marks!O30</f>
-        <v>70</v>
+        <f>Marks!P30</f>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3977,8 +4062,8 @@
         <v>22</v>
       </c>
       <c r="B23" s="8">
-        <f>Marks!O26</f>
-        <v>64</v>
+        <f>Marks!P26</f>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3986,8 +4071,8 @@
         <v>23</v>
       </c>
       <c r="B24" s="8">
-        <f>Marks!O32</f>
-        <v>65</v>
+        <f>Marks!P32</f>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3995,8 +4080,8 @@
         <v>24</v>
       </c>
       <c r="B25" s="8">
-        <f>Marks!O27</f>
-        <v>70</v>
+        <f>Marks!P27</f>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,8 +4089,8 @@
         <v>25</v>
       </c>
       <c r="B26" s="8">
-        <f>Marks!O33</f>
-        <v>65</v>
+        <f>Marks!P33</f>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4013,7 +4098,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8">
-        <f>Marks!O23</f>
+        <f>Marks!P23</f>
         <v>67</v>
       </c>
     </row>
@@ -4022,8 +4107,8 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
-        <f>Marks!O29</f>
-        <v>70</v>
+        <f>Marks!P29</f>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4031,8 +4116,8 @@
         <v>28</v>
       </c>
       <c r="B29" s="8">
-        <f>Marks!O19</f>
-        <v>79</v>
+        <f>Marks!P19</f>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4040,7 +4125,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8">
-        <f>Marks!O21</f>
+        <f>Marks!P21</f>
         <v>67</v>
       </c>
     </row>
@@ -4049,8 +4134,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="8">
-        <f>Marks!O28</f>
-        <v>70</v>
+        <f>Marks!P28</f>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4058,7 +4143,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8">
-        <f>Marks!O24</f>
+        <f>Marks!P24</f>
         <v>67</v>
       </c>
     </row>
@@ -4067,8 +4152,8 @@
         <v>32</v>
       </c>
       <c r="B33" s="8">
-        <f>Marks!O13</f>
-        <v>67</v>
+        <f>Marks!P13</f>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4076,19 +4161,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="8">
-        <f>Marks!O34</f>
-        <v>65</v>
-      </c>
-      <c r="D34" s="58" t="s">
+        <f>Marks!P34</f>
+        <v>67</v>
+      </c>
+      <c r="D34" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -4277,12 +4362,1785 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="40.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.5703125" style="25" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="15" width="13.5703125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="13.5703125" style="25" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.140625" style="25"/>
+    <col min="18" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="38">
+        <v>2</v>
+      </c>
+      <c r="F2" s="39">
+        <v>3</v>
+      </c>
+      <c r="G2" s="39">
+        <v>3</v>
+      </c>
+      <c r="H2" s="39">
+        <v>4</v>
+      </c>
+      <c r="I2" s="39">
+        <v>4</v>
+      </c>
+      <c r="J2" s="39">
+        <v>5</v>
+      </c>
+      <c r="K2" s="39">
+        <v>8</v>
+      </c>
+      <c r="L2" s="39">
+        <v>5</v>
+      </c>
+      <c r="M2" s="39">
+        <v>15</v>
+      </c>
+      <c r="N2" s="39">
+        <v>15</v>
+      </c>
+      <c r="O2" s="39">
+        <v>6</v>
+      </c>
+      <c r="P2" s="40">
+        <f>SUM(E2:O2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34">
+        <v>3</v>
+      </c>
+      <c r="G3" s="34">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34">
+        <v>4</v>
+      </c>
+      <c r="I3" s="34">
+        <v>4</v>
+      </c>
+      <c r="J3" s="34">
+        <v>5</v>
+      </c>
+      <c r="K3" s="34">
+        <v>8</v>
+      </c>
+      <c r="L3" s="34">
+        <v>5</v>
+      </c>
+      <c r="M3" s="34">
+        <v>15</v>
+      </c>
+      <c r="N3" s="34">
+        <v>15</v>
+      </c>
+      <c r="O3" s="34">
+        <v>6</v>
+      </c>
+      <c r="P3" s="31">
+        <f>SUM(E3:O3)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="32">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="30">
+        <v>2</v>
+      </c>
+      <c r="F4" s="34">
+        <v>3</v>
+      </c>
+      <c r="G4" s="34">
+        <v>3</v>
+      </c>
+      <c r="H4" s="34">
+        <v>4</v>
+      </c>
+      <c r="I4" s="34">
+        <v>4</v>
+      </c>
+      <c r="J4" s="34">
+        <v>5</v>
+      </c>
+      <c r="K4" s="34">
+        <v>8</v>
+      </c>
+      <c r="L4" s="34">
+        <v>5</v>
+      </c>
+      <c r="M4" s="34">
+        <v>15</v>
+      </c>
+      <c r="N4" s="34">
+        <v>15</v>
+      </c>
+      <c r="O4" s="34">
+        <v>6</v>
+      </c>
+      <c r="P4" s="31">
+        <f>SUM(E4:O4)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="32">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="30">
+        <v>2</v>
+      </c>
+      <c r="F5" s="34">
+        <v>3</v>
+      </c>
+      <c r="G5" s="34">
+        <v>3</v>
+      </c>
+      <c r="H5" s="34">
+        <v>4</v>
+      </c>
+      <c r="I5" s="34">
+        <v>4</v>
+      </c>
+      <c r="J5" s="34">
+        <v>5</v>
+      </c>
+      <c r="K5" s="34">
+        <v>8</v>
+      </c>
+      <c r="L5" s="34">
+        <v>5</v>
+      </c>
+      <c r="M5" s="34">
+        <v>15</v>
+      </c>
+      <c r="N5" s="34">
+        <v>15</v>
+      </c>
+      <c r="O5" s="34">
+        <v>6</v>
+      </c>
+      <c r="P5" s="31">
+        <f>SUM(E5:O5)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>1</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="44">
+        <v>2</v>
+      </c>
+      <c r="F6" s="45">
+        <v>3</v>
+      </c>
+      <c r="G6" s="45">
+        <v>3</v>
+      </c>
+      <c r="H6" s="45">
+        <v>4</v>
+      </c>
+      <c r="I6" s="45">
+        <v>4</v>
+      </c>
+      <c r="J6" s="45">
+        <v>5</v>
+      </c>
+      <c r="K6" s="45">
+        <v>8</v>
+      </c>
+      <c r="L6" s="45">
+        <v>5</v>
+      </c>
+      <c r="M6" s="45">
+        <v>15</v>
+      </c>
+      <c r="N6" s="45">
+        <v>15</v>
+      </c>
+      <c r="O6" s="45">
+        <v>6</v>
+      </c>
+      <c r="P6" s="31">
+        <f>SUM(E6:O6)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <v>2</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="38">
+        <v>4</v>
+      </c>
+      <c r="F7" s="39">
+        <v>3</v>
+      </c>
+      <c r="G7" s="39">
+        <v>3</v>
+      </c>
+      <c r="H7" s="39">
+        <v>4</v>
+      </c>
+      <c r="I7" s="39">
+        <v>5</v>
+      </c>
+      <c r="J7" s="39">
+        <v>5</v>
+      </c>
+      <c r="K7" s="39">
+        <v>8</v>
+      </c>
+      <c r="L7" s="39">
+        <v>5</v>
+      </c>
+      <c r="M7" s="39">
+        <v>12</v>
+      </c>
+      <c r="N7" s="39">
+        <v>5</v>
+      </c>
+      <c r="O7" s="39">
+        <v>11</v>
+      </c>
+      <c r="P7" s="40">
+        <f>SUM(E7:O7)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="32">
+        <v>2</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="30">
+        <v>4</v>
+      </c>
+      <c r="F8" s="34">
+        <v>3</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34">
+        <v>4</v>
+      </c>
+      <c r="I8" s="34">
+        <v>5</v>
+      </c>
+      <c r="J8" s="34">
+        <v>5</v>
+      </c>
+      <c r="K8" s="34">
+        <v>8</v>
+      </c>
+      <c r="L8" s="34">
+        <v>5</v>
+      </c>
+      <c r="M8" s="34">
+        <v>12</v>
+      </c>
+      <c r="N8" s="34">
+        <v>5</v>
+      </c>
+      <c r="O8" s="34">
+        <v>11</v>
+      </c>
+      <c r="P8" s="31">
+        <f>SUM(E8:O8)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="32">
+        <v>2</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="30">
+        <v>4</v>
+      </c>
+      <c r="F9" s="34">
+        <v>3</v>
+      </c>
+      <c r="G9" s="34">
+        <v>3</v>
+      </c>
+      <c r="H9" s="34">
+        <v>4</v>
+      </c>
+      <c r="I9" s="34">
+        <v>5</v>
+      </c>
+      <c r="J9" s="34">
+        <v>5</v>
+      </c>
+      <c r="K9" s="34">
+        <v>8</v>
+      </c>
+      <c r="L9" s="34">
+        <v>5</v>
+      </c>
+      <c r="M9" s="34">
+        <v>12</v>
+      </c>
+      <c r="N9" s="34">
+        <v>5</v>
+      </c>
+      <c r="O9" s="34">
+        <v>11</v>
+      </c>
+      <c r="P9" s="31">
+        <f>SUM(E9:O9)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="44">
+        <v>4</v>
+      </c>
+      <c r="F10" s="45">
+        <v>3</v>
+      </c>
+      <c r="G10" s="45">
+        <v>3</v>
+      </c>
+      <c r="H10" s="45">
+        <v>4</v>
+      </c>
+      <c r="I10" s="45">
+        <v>5</v>
+      </c>
+      <c r="J10" s="45">
+        <v>5</v>
+      </c>
+      <c r="K10" s="45">
+        <v>8</v>
+      </c>
+      <c r="L10" s="45">
+        <v>5</v>
+      </c>
+      <c r="M10" s="45">
+        <v>12</v>
+      </c>
+      <c r="N10" s="45">
+        <v>5</v>
+      </c>
+      <c r="O10" s="45">
+        <v>11</v>
+      </c>
+      <c r="P10" s="46">
+        <f>SUM(E10:O10)</f>
+        <v>65</v>
+      </c>
+      <c r="Q10" s="25">
+        <f>1+15+4+15+10+25+15+15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
+        <v>3</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="62">
+        <v>4</v>
+      </c>
+      <c r="F11" s="63">
+        <v>4</v>
+      </c>
+      <c r="G11" s="63">
+        <v>4</v>
+      </c>
+      <c r="H11" s="63">
+        <v>3</v>
+      </c>
+      <c r="I11" s="63">
+        <v>3</v>
+      </c>
+      <c r="J11" s="63">
+        <v>5</v>
+      </c>
+      <c r="K11" s="63">
+        <v>7</v>
+      </c>
+      <c r="L11" s="63">
+        <v>4</v>
+      </c>
+      <c r="M11" s="63">
+        <v>14</v>
+      </c>
+      <c r="N11" s="63">
+        <v>12</v>
+      </c>
+      <c r="O11" s="63">
+        <v>4</v>
+      </c>
+      <c r="P11" s="64">
+        <f>SUM(E11:O11)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>3</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="44">
+        <v>4</v>
+      </c>
+      <c r="F12" s="45">
+        <v>4</v>
+      </c>
+      <c r="G12" s="45">
+        <v>4</v>
+      </c>
+      <c r="H12" s="45">
+        <v>3</v>
+      </c>
+      <c r="I12" s="45">
+        <v>3</v>
+      </c>
+      <c r="J12" s="45">
+        <v>5</v>
+      </c>
+      <c r="K12" s="45">
+        <v>7</v>
+      </c>
+      <c r="L12" s="45">
+        <v>4</v>
+      </c>
+      <c r="M12" s="45">
+        <v>14</v>
+      </c>
+      <c r="N12" s="45">
+        <v>12</v>
+      </c>
+      <c r="O12" s="45">
+        <v>4</v>
+      </c>
+      <c r="P12" s="46">
+        <f>SUM(E12:O12)</f>
+        <v>64</v>
+      </c>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="32">
+        <v>4</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="38">
+        <v>5</v>
+      </c>
+      <c r="F13" s="39">
+        <v>5</v>
+      </c>
+      <c r="G13" s="39">
+        <v>5</v>
+      </c>
+      <c r="H13" s="39">
+        <v>8</v>
+      </c>
+      <c r="I13" s="39">
+        <v>5</v>
+      </c>
+      <c r="J13" s="39">
+        <v>6</v>
+      </c>
+      <c r="K13" s="39">
+        <v>5</v>
+      </c>
+      <c r="L13" s="39">
+        <v>5</v>
+      </c>
+      <c r="M13" s="39">
+        <v>15</v>
+      </c>
+      <c r="N13" s="39">
+        <v>10</v>
+      </c>
+      <c r="O13" s="39">
+        <v>5</v>
+      </c>
+      <c r="P13" s="40">
+        <f>SUM(E13:O13)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
+        <v>4</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="30">
+        <v>5</v>
+      </c>
+      <c r="F14" s="34">
+        <v>5</v>
+      </c>
+      <c r="G14" s="34">
+        <v>5</v>
+      </c>
+      <c r="H14" s="34">
+        <v>8</v>
+      </c>
+      <c r="I14" s="34">
+        <v>5</v>
+      </c>
+      <c r="J14" s="34">
+        <v>6</v>
+      </c>
+      <c r="K14" s="34">
+        <v>5</v>
+      </c>
+      <c r="L14" s="34">
+        <v>5</v>
+      </c>
+      <c r="M14" s="34">
+        <v>15</v>
+      </c>
+      <c r="N14" s="34">
+        <v>10</v>
+      </c>
+      <c r="O14" s="34">
+        <v>5</v>
+      </c>
+      <c r="P14" s="31">
+        <f>SUM(E14:O14)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>4</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="44">
+        <v>5</v>
+      </c>
+      <c r="F15" s="45">
+        <v>5</v>
+      </c>
+      <c r="G15" s="45">
+        <v>5</v>
+      </c>
+      <c r="H15" s="45">
+        <v>8</v>
+      </c>
+      <c r="I15" s="45">
+        <v>5</v>
+      </c>
+      <c r="J15" s="45">
+        <v>6</v>
+      </c>
+      <c r="K15" s="45">
+        <v>5</v>
+      </c>
+      <c r="L15" s="45">
+        <v>5</v>
+      </c>
+      <c r="M15" s="45">
+        <v>15</v>
+      </c>
+      <c r="N15" s="45">
+        <v>10</v>
+      </c>
+      <c r="O15" s="45">
+        <v>5</v>
+      </c>
+      <c r="P15" s="46">
+        <f>SUM(E15:O15)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="32">
+        <v>5</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="38">
+        <v>2</v>
+      </c>
+      <c r="F16" s="39">
+        <v>4</v>
+      </c>
+      <c r="G16" s="39">
+        <v>3</v>
+      </c>
+      <c r="H16" s="39">
+        <v>5</v>
+      </c>
+      <c r="I16" s="39">
+        <v>3</v>
+      </c>
+      <c r="J16" s="39">
+        <v>3</v>
+      </c>
+      <c r="K16" s="39">
+        <v>8</v>
+      </c>
+      <c r="L16" s="39">
+        <v>4</v>
+      </c>
+      <c r="M16" s="39">
+        <v>12</v>
+      </c>
+      <c r="N16" s="39">
+        <v>12</v>
+      </c>
+      <c r="O16" s="39">
+        <v>14</v>
+      </c>
+      <c r="P16" s="40">
+        <f>SUM(E16:O16)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="32">
+        <v>5</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2</v>
+      </c>
+      <c r="F17" s="34">
+        <v>4</v>
+      </c>
+      <c r="G17" s="34">
+        <v>3</v>
+      </c>
+      <c r="H17" s="34">
+        <v>5</v>
+      </c>
+      <c r="I17" s="34">
+        <v>3</v>
+      </c>
+      <c r="J17" s="34">
+        <v>3</v>
+      </c>
+      <c r="K17" s="34">
+        <v>8</v>
+      </c>
+      <c r="L17" s="34">
+        <v>4</v>
+      </c>
+      <c r="M17" s="34">
+        <v>12</v>
+      </c>
+      <c r="N17" s="34">
+        <v>12</v>
+      </c>
+      <c r="O17" s="34">
+        <v>14</v>
+      </c>
+      <c r="P17" s="31">
+        <f>SUM(E17:O17)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
+        <v>5</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="30">
+        <v>2</v>
+      </c>
+      <c r="F18" s="34">
+        <v>4</v>
+      </c>
+      <c r="G18" s="34">
+        <v>3</v>
+      </c>
+      <c r="H18" s="34">
+        <v>5</v>
+      </c>
+      <c r="I18" s="34">
+        <v>3</v>
+      </c>
+      <c r="J18" s="34">
+        <v>3</v>
+      </c>
+      <c r="K18" s="34">
+        <v>8</v>
+      </c>
+      <c r="L18" s="34">
+        <v>4</v>
+      </c>
+      <c r="M18" s="34">
+        <v>12</v>
+      </c>
+      <c r="N18" s="34">
+        <v>12</v>
+      </c>
+      <c r="O18" s="34">
+        <v>14</v>
+      </c>
+      <c r="P18" s="31">
+        <f>SUM(E18:O18)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>5</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="44">
+        <v>2</v>
+      </c>
+      <c r="F19" s="45">
+        <v>4</v>
+      </c>
+      <c r="G19" s="45">
+        <v>3</v>
+      </c>
+      <c r="H19" s="45">
+        <v>5</v>
+      </c>
+      <c r="I19" s="45">
+        <v>3</v>
+      </c>
+      <c r="J19" s="45">
+        <v>3</v>
+      </c>
+      <c r="K19" s="45">
+        <v>8</v>
+      </c>
+      <c r="L19" s="45">
+        <v>4</v>
+      </c>
+      <c r="M19" s="45">
+        <v>12</v>
+      </c>
+      <c r="N19" s="45">
+        <v>12</v>
+      </c>
+      <c r="O19" s="45">
+        <v>14</v>
+      </c>
+      <c r="P19" s="46">
+        <f>SUM(E19:O19)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="32">
+        <v>6</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="38">
+        <v>4</v>
+      </c>
+      <c r="F20" s="39">
+        <v>5</v>
+      </c>
+      <c r="G20" s="39">
+        <v>5</v>
+      </c>
+      <c r="H20" s="39">
+        <v>4</v>
+      </c>
+      <c r="I20" s="39">
+        <v>5</v>
+      </c>
+      <c r="J20" s="39">
+        <v>6</v>
+      </c>
+      <c r="K20" s="39">
+        <v>8</v>
+      </c>
+      <c r="L20" s="39">
+        <v>5</v>
+      </c>
+      <c r="M20" s="39">
+        <v>12</v>
+      </c>
+      <c r="N20" s="39">
+        <v>8</v>
+      </c>
+      <c r="O20" s="39">
+        <v>5</v>
+      </c>
+      <c r="P20" s="40">
+        <f>SUM(E20:O20)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="32">
+        <v>6</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="30">
+        <v>4</v>
+      </c>
+      <c r="F21" s="34">
+        <v>5</v>
+      </c>
+      <c r="G21" s="34">
+        <v>5</v>
+      </c>
+      <c r="H21" s="34">
+        <v>4</v>
+      </c>
+      <c r="I21" s="34">
+        <v>5</v>
+      </c>
+      <c r="J21" s="34">
+        <v>6</v>
+      </c>
+      <c r="K21" s="34">
+        <v>8</v>
+      </c>
+      <c r="L21" s="34">
+        <v>5</v>
+      </c>
+      <c r="M21" s="34">
+        <v>12</v>
+      </c>
+      <c r="N21" s="34">
+        <v>8</v>
+      </c>
+      <c r="O21" s="34">
+        <v>5</v>
+      </c>
+      <c r="P21" s="31">
+        <f>SUM(E21:O21)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>6</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="30">
+        <v>4</v>
+      </c>
+      <c r="F22" s="34">
+        <v>5</v>
+      </c>
+      <c r="G22" s="34">
+        <v>5</v>
+      </c>
+      <c r="H22" s="34">
+        <v>4</v>
+      </c>
+      <c r="I22" s="34">
+        <v>5</v>
+      </c>
+      <c r="J22" s="34">
+        <v>6</v>
+      </c>
+      <c r="K22" s="34">
+        <v>8</v>
+      </c>
+      <c r="L22" s="34">
+        <v>5</v>
+      </c>
+      <c r="M22" s="34">
+        <v>12</v>
+      </c>
+      <c r="N22" s="34">
+        <v>8</v>
+      </c>
+      <c r="O22" s="34">
+        <v>5</v>
+      </c>
+      <c r="P22" s="31">
+        <f>SUM(E22:O22)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
+        <v>6</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="30">
+        <v>4</v>
+      </c>
+      <c r="F23" s="34">
+        <v>5</v>
+      </c>
+      <c r="G23" s="34">
+        <v>5</v>
+      </c>
+      <c r="H23" s="34">
+        <v>4</v>
+      </c>
+      <c r="I23" s="34">
+        <v>5</v>
+      </c>
+      <c r="J23" s="34">
+        <v>6</v>
+      </c>
+      <c r="K23" s="34">
+        <v>8</v>
+      </c>
+      <c r="L23" s="34">
+        <v>5</v>
+      </c>
+      <c r="M23" s="34">
+        <v>12</v>
+      </c>
+      <c r="N23" s="34">
+        <v>8</v>
+      </c>
+      <c r="O23" s="34">
+        <v>5</v>
+      </c>
+      <c r="P23" s="31">
+        <f>SUM(E23:O23)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
+        <v>6</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="44">
+        <v>4</v>
+      </c>
+      <c r="F24" s="45">
+        <v>5</v>
+      </c>
+      <c r="G24" s="45">
+        <v>5</v>
+      </c>
+      <c r="H24" s="45">
+        <v>4</v>
+      </c>
+      <c r="I24" s="45">
+        <v>5</v>
+      </c>
+      <c r="J24" s="45">
+        <v>6</v>
+      </c>
+      <c r="K24" s="45">
+        <v>8</v>
+      </c>
+      <c r="L24" s="45">
+        <v>5</v>
+      </c>
+      <c r="M24" s="45">
+        <v>12</v>
+      </c>
+      <c r="N24" s="45">
+        <v>8</v>
+      </c>
+      <c r="O24" s="45">
+        <v>5</v>
+      </c>
+      <c r="P24" s="46">
+        <f>SUM(E24:O24)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
+        <v>7</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="38">
+        <v>3</v>
+      </c>
+      <c r="F25" s="39">
+        <v>5</v>
+      </c>
+      <c r="G25" s="39">
+        <v>5</v>
+      </c>
+      <c r="H25" s="39">
+        <v>4</v>
+      </c>
+      <c r="I25" s="39">
+        <v>4</v>
+      </c>
+      <c r="J25" s="39">
+        <v>6</v>
+      </c>
+      <c r="K25" s="39">
+        <v>7</v>
+      </c>
+      <c r="L25" s="39">
+        <v>3</v>
+      </c>
+      <c r="M25" s="39">
+        <v>16</v>
+      </c>
+      <c r="N25" s="39">
+        <v>12</v>
+      </c>
+      <c r="O25" s="39">
+        <v>14</v>
+      </c>
+      <c r="P25" s="40">
+        <f>SUM(E25:O25)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
+        <v>7</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="30">
+        <v>3</v>
+      </c>
+      <c r="F26" s="34">
+        <v>5</v>
+      </c>
+      <c r="G26" s="34">
+        <v>5</v>
+      </c>
+      <c r="H26" s="34">
+        <v>4</v>
+      </c>
+      <c r="I26" s="34">
+        <v>4</v>
+      </c>
+      <c r="J26" s="34">
+        <v>6</v>
+      </c>
+      <c r="K26" s="34">
+        <v>7</v>
+      </c>
+      <c r="L26" s="34">
+        <v>3</v>
+      </c>
+      <c r="M26" s="34">
+        <v>16</v>
+      </c>
+      <c r="N26" s="34">
+        <v>12</v>
+      </c>
+      <c r="O26" s="34">
+        <v>14</v>
+      </c>
+      <c r="P26" s="31">
+        <f>SUM(E26:O26)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
+        <v>7</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="30">
+        <v>3</v>
+      </c>
+      <c r="F27" s="34">
+        <v>5</v>
+      </c>
+      <c r="G27" s="34">
+        <v>5</v>
+      </c>
+      <c r="H27" s="34">
+        <v>4</v>
+      </c>
+      <c r="I27" s="34">
+        <v>4</v>
+      </c>
+      <c r="J27" s="34">
+        <v>6</v>
+      </c>
+      <c r="K27" s="34">
+        <v>7</v>
+      </c>
+      <c r="L27" s="34">
+        <v>3</v>
+      </c>
+      <c r="M27" s="34">
+        <v>16</v>
+      </c>
+      <c r="N27" s="34">
+        <v>12</v>
+      </c>
+      <c r="O27" s="34">
+        <v>14</v>
+      </c>
+      <c r="P27" s="31">
+        <f>SUM(E27:O27)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>7</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="44">
+        <v>3</v>
+      </c>
+      <c r="F28" s="45">
+        <v>5</v>
+      </c>
+      <c r="G28" s="45">
+        <v>5</v>
+      </c>
+      <c r="H28" s="45">
+        <v>4</v>
+      </c>
+      <c r="I28" s="45">
+        <v>4</v>
+      </c>
+      <c r="J28" s="45">
+        <v>6</v>
+      </c>
+      <c r="K28" s="45">
+        <v>7</v>
+      </c>
+      <c r="L28" s="45">
+        <v>3</v>
+      </c>
+      <c r="M28" s="45">
+        <v>16</v>
+      </c>
+      <c r="N28" s="45">
+        <v>12</v>
+      </c>
+      <c r="O28" s="45">
+        <v>14</v>
+      </c>
+      <c r="P28" s="46">
+        <f>SUM(E28:O28)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
+        <v>8</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="38">
+        <v>5</v>
+      </c>
+      <c r="F29" s="39">
+        <v>4</v>
+      </c>
+      <c r="G29" s="39">
+        <v>4</v>
+      </c>
+      <c r="H29" s="39">
+        <v>6</v>
+      </c>
+      <c r="I29" s="39">
+        <v>4</v>
+      </c>
+      <c r="J29" s="39">
+        <v>6</v>
+      </c>
+      <c r="K29" s="39">
+        <v>5</v>
+      </c>
+      <c r="L29" s="39">
+        <v>1</v>
+      </c>
+      <c r="M29" s="39">
+        <v>15</v>
+      </c>
+      <c r="N29" s="39">
+        <v>13</v>
+      </c>
+      <c r="O29" s="39">
+        <v>10</v>
+      </c>
+      <c r="P29" s="40">
+        <f>SUM(E29:O29)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>8</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="54">
+        <v>5</v>
+      </c>
+      <c r="F30" s="57">
+        <v>4</v>
+      </c>
+      <c r="G30" s="57">
+        <v>4</v>
+      </c>
+      <c r="H30" s="57">
+        <v>6</v>
+      </c>
+      <c r="I30" s="57">
+        <v>4</v>
+      </c>
+      <c r="J30" s="57">
+        <v>6</v>
+      </c>
+      <c r="K30" s="57">
+        <v>5</v>
+      </c>
+      <c r="L30" s="57">
+        <v>1</v>
+      </c>
+      <c r="M30" s="57">
+        <v>15</v>
+      </c>
+      <c r="N30" s="57">
+        <v>13</v>
+      </c>
+      <c r="O30" s="57">
+        <v>10</v>
+      </c>
+      <c r="P30" s="58">
+        <f>SUM(E30:O30)</f>
+        <v>73</v>
+      </c>
+      <c r="Q30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>8</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="44">
+        <v>5</v>
+      </c>
+      <c r="F31" s="45">
+        <v>4</v>
+      </c>
+      <c r="G31" s="45">
+        <v>4</v>
+      </c>
+      <c r="H31" s="45">
+        <v>6</v>
+      </c>
+      <c r="I31" s="45">
+        <v>4</v>
+      </c>
+      <c r="J31" s="45">
+        <v>6</v>
+      </c>
+      <c r="K31" s="45">
+        <v>5</v>
+      </c>
+      <c r="L31" s="45">
+        <v>1</v>
+      </c>
+      <c r="M31" s="45">
+        <v>15</v>
+      </c>
+      <c r="N31" s="45">
+        <v>13</v>
+      </c>
+      <c r="O31" s="45">
+        <v>10</v>
+      </c>
+      <c r="P31" s="46">
+        <f>SUM(E31:O31)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
+        <v>9</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="62">
+        <v>3</v>
+      </c>
+      <c r="F32" s="63">
+        <v>4</v>
+      </c>
+      <c r="G32" s="63">
+        <v>5</v>
+      </c>
+      <c r="H32" s="63">
+        <v>4</v>
+      </c>
+      <c r="I32" s="63">
+        <v>4</v>
+      </c>
+      <c r="J32" s="63">
+        <v>5</v>
+      </c>
+      <c r="K32" s="63">
+        <v>5</v>
+      </c>
+      <c r="L32" s="63">
+        <v>5</v>
+      </c>
+      <c r="M32" s="63">
+        <v>16</v>
+      </c>
+      <c r="N32" s="63">
+        <v>12</v>
+      </c>
+      <c r="O32" s="63">
+        <v>4</v>
+      </c>
+      <c r="P32" s="64">
+        <f>SUM(E32:O32)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
+        <v>9</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="30">
+        <v>3</v>
+      </c>
+      <c r="F33" s="34">
+        <v>4</v>
+      </c>
+      <c r="G33" s="34">
+        <v>5</v>
+      </c>
+      <c r="H33" s="34">
+        <v>4</v>
+      </c>
+      <c r="I33" s="34">
+        <v>4</v>
+      </c>
+      <c r="J33" s="34">
+        <v>5</v>
+      </c>
+      <c r="K33" s="34">
+        <v>5</v>
+      </c>
+      <c r="L33" s="34">
+        <v>5</v>
+      </c>
+      <c r="M33" s="34">
+        <v>16</v>
+      </c>
+      <c r="N33" s="34">
+        <v>12</v>
+      </c>
+      <c r="O33" s="34">
+        <v>4</v>
+      </c>
+      <c r="P33" s="31">
+        <f>SUM(E33:O33)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>9</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="50">
+        <v>3</v>
+      </c>
+      <c r="F34" s="51">
+        <v>4</v>
+      </c>
+      <c r="G34" s="51">
+        <v>5</v>
+      </c>
+      <c r="H34" s="51">
+        <v>4</v>
+      </c>
+      <c r="I34" s="51">
+        <v>4</v>
+      </c>
+      <c r="J34" s="51">
+        <v>5</v>
+      </c>
+      <c r="K34" s="51">
+        <v>5</v>
+      </c>
+      <c r="L34" s="51">
+        <v>5</v>
+      </c>
+      <c r="M34" s="51">
+        <v>16</v>
+      </c>
+      <c r="N34" s="51">
+        <v>12</v>
+      </c>
+      <c r="O34" s="51">
+        <v>4</v>
+      </c>
+      <c r="P34" s="52">
+        <f>SUM(E34:O34)</f>
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:Q33"/>
+  <sortState ref="A2:Q34">
+    <sortCondition ref="A2:A34"/>
+    <sortCondition ref="B2:B34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -4290,9 +6148,9 @@
     <col min="1" max="1" width="40.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.5703125" style="25" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="14" width="13.5703125" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="13.5703125" style="25" customWidth="1"/>
+    <col min="4" max="8" width="13.5703125" style="25" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="14" width="13.5703125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="13.5703125" style="25" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="9.140625" style="25"/>
     <col min="17" max="16384" width="9.140625" style="26"/>
   </cols>
@@ -4337,7 +6195,7 @@
       <c r="M1" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="33" t="s">
         <v>153</v>
       </c>
       <c r="O1" s="24" t="s">
@@ -4348,577 +6206,579 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="43">
-        <v>2</v>
-      </c>
-      <c r="E2" s="44">
-        <v>3</v>
-      </c>
-      <c r="F2" s="44">
-        <v>3</v>
-      </c>
-      <c r="G2" s="44">
-        <v>4</v>
-      </c>
-      <c r="H2" s="44">
-        <v>4</v>
-      </c>
-      <c r="I2" s="44">
-        <v>5</v>
-      </c>
-      <c r="J2" s="44">
+      <c r="A2" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="38">
+        <v>5</v>
+      </c>
+      <c r="E2" s="39">
+        <v>5</v>
+      </c>
+      <c r="F2" s="39">
+        <v>5</v>
+      </c>
+      <c r="G2" s="39">
         <v>8</v>
       </c>
-      <c r="K2" s="44">
-        <v>5</v>
-      </c>
-      <c r="L2" s="44">
+      <c r="H2" s="39">
+        <v>5</v>
+      </c>
+      <c r="I2" s="39">
+        <v>6</v>
+      </c>
+      <c r="J2" s="39">
+        <v>5</v>
+      </c>
+      <c r="K2" s="39">
+        <v>5</v>
+      </c>
+      <c r="L2" s="39">
         <v>15</v>
       </c>
-      <c r="M2" s="44">
-        <v>15</v>
-      </c>
-      <c r="N2" s="44">
-        <v>6</v>
-      </c>
-      <c r="O2" s="45">
+      <c r="M2" s="39">
+        <v>10</v>
+      </c>
+      <c r="N2" s="39">
+        <v>5</v>
+      </c>
+      <c r="O2" s="40">
         <f>SUM(D2:N2)</f>
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D3" s="30">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38">
-        <v>3</v>
-      </c>
-      <c r="G3" s="38">
-        <v>4</v>
-      </c>
-      <c r="H3" s="38">
-        <v>4</v>
-      </c>
-      <c r="I3" s="38">
-        <v>5</v>
-      </c>
-      <c r="J3" s="38">
-        <v>8</v>
-      </c>
-      <c r="K3" s="38">
-        <v>5</v>
-      </c>
-      <c r="L3" s="38">
-        <v>15</v>
-      </c>
-      <c r="M3" s="38">
-        <v>15</v>
-      </c>
-      <c r="N3" s="38">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="34">
+        <v>4</v>
+      </c>
+      <c r="F3" s="34">
+        <v>4</v>
+      </c>
+      <c r="G3" s="34">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34">
+        <v>3</v>
+      </c>
+      <c r="I3" s="34">
+        <v>5</v>
+      </c>
+      <c r="J3" s="34">
+        <v>7</v>
+      </c>
+      <c r="K3" s="34">
+        <v>4</v>
+      </c>
+      <c r="L3" s="34">
+        <v>14</v>
+      </c>
+      <c r="M3" s="34">
+        <v>12</v>
+      </c>
+      <c r="N3" s="34">
+        <v>4</v>
       </c>
       <c r="O3" s="31">
-        <f t="shared" ref="O3:O33" si="0">SUM(D3:N3)</f>
-        <v>70</v>
+        <f>SUM(D3:N3)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="30">
+        <v>5</v>
+      </c>
+      <c r="E4" s="34">
+        <v>4</v>
+      </c>
+      <c r="F4" s="34">
+        <v>4</v>
+      </c>
+      <c r="G4" s="34">
+        <v>6</v>
+      </c>
+      <c r="H4" s="34">
+        <v>4</v>
+      </c>
+      <c r="I4" s="34">
+        <v>6</v>
+      </c>
+      <c r="J4" s="34">
+        <v>5</v>
+      </c>
+      <c r="K4" s="34">
+        <v>1</v>
+      </c>
+      <c r="L4" s="34">
+        <v>15</v>
+      </c>
+      <c r="M4" s="34">
+        <v>13</v>
+      </c>
+      <c r="N4" s="34">
+        <v>10</v>
+      </c>
+      <c r="O4" s="31">
+        <f>SUM(D4:N4)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="54">
+        <v>5</v>
+      </c>
+      <c r="E5" s="57">
+        <v>4</v>
+      </c>
+      <c r="F5" s="57">
+        <v>4</v>
+      </c>
+      <c r="G5" s="57">
+        <v>6</v>
+      </c>
+      <c r="H5" s="57">
+        <v>4</v>
+      </c>
+      <c r="I5" s="57">
+        <v>6</v>
+      </c>
+      <c r="J5" s="57">
+        <v>5</v>
+      </c>
+      <c r="K5" s="57">
+        <v>1</v>
+      </c>
+      <c r="L5" s="57">
+        <v>15</v>
+      </c>
+      <c r="M5" s="57">
+        <v>13</v>
+      </c>
+      <c r="N5" s="57">
+        <v>10</v>
+      </c>
+      <c r="O5" s="58">
+        <f>SUM(D5:N5)</f>
+        <v>73</v>
+      </c>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="44">
         <v>2</v>
       </c>
-      <c r="E4" s="38">
-        <v>3</v>
-      </c>
-      <c r="F4" s="38">
-        <v>3</v>
-      </c>
-      <c r="G4" s="38">
-        <v>4</v>
-      </c>
-      <c r="H4" s="38">
-        <v>4</v>
-      </c>
-      <c r="I4" s="38">
-        <v>5</v>
-      </c>
-      <c r="J4" s="38">
+      <c r="E6" s="45">
+        <v>4</v>
+      </c>
+      <c r="F6" s="45">
+        <v>3</v>
+      </c>
+      <c r="G6" s="45">
+        <v>5</v>
+      </c>
+      <c r="H6" s="45">
+        <v>3</v>
+      </c>
+      <c r="I6" s="45">
+        <v>3</v>
+      </c>
+      <c r="J6" s="45">
         <v>8</v>
       </c>
-      <c r="K4" s="38">
-        <v>5</v>
-      </c>
-      <c r="L4" s="38">
+      <c r="K6" s="45">
+        <v>4</v>
+      </c>
+      <c r="L6" s="45">
+        <v>12</v>
+      </c>
+      <c r="M6" s="45">
+        <v>12</v>
+      </c>
+      <c r="N6" s="45">
+        <v>14</v>
+      </c>
+      <c r="O6" s="31">
+        <f>SUM(D6:N6)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="38">
+        <v>2</v>
+      </c>
+      <c r="E7" s="39">
+        <v>3</v>
+      </c>
+      <c r="F7" s="39">
+        <v>3</v>
+      </c>
+      <c r="G7" s="39">
+        <v>4</v>
+      </c>
+      <c r="H7" s="39">
+        <v>4</v>
+      </c>
+      <c r="I7" s="39">
+        <v>5</v>
+      </c>
+      <c r="J7" s="39">
+        <v>8</v>
+      </c>
+      <c r="K7" s="39">
+        <v>5</v>
+      </c>
+      <c r="L7" s="39">
         <v>15</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M7" s="39">
         <v>15</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N7" s="39">
         <v>6</v>
       </c>
-      <c r="O4" s="31">
-        <f t="shared" si="0"/>
+      <c r="O7" s="40">
+        <f>SUM(D7:N7)</f>
         <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="30">
-        <v>2</v>
-      </c>
-      <c r="E5" s="38">
-        <v>3</v>
-      </c>
-      <c r="F5" s="38">
-        <v>3</v>
-      </c>
-      <c r="G5" s="38">
-        <v>4</v>
-      </c>
-      <c r="H5" s="38">
-        <v>4</v>
-      </c>
-      <c r="I5" s="38">
-        <v>5</v>
-      </c>
-      <c r="J5" s="38">
-        <v>8</v>
-      </c>
-      <c r="K5" s="38">
-        <v>5</v>
-      </c>
-      <c r="L5" s="38">
-        <v>15</v>
-      </c>
-      <c r="M5" s="38">
-        <v>14</v>
-      </c>
-      <c r="N5" s="38">
-        <v>6</v>
-      </c>
-      <c r="O5" s="31">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="49">
-        <v>2</v>
-      </c>
-      <c r="E6" s="50">
-        <v>3</v>
-      </c>
-      <c r="F6" s="50">
-        <v>3</v>
-      </c>
-      <c r="G6" s="50">
-        <v>4</v>
-      </c>
-      <c r="H6" s="50">
-        <v>4</v>
-      </c>
-      <c r="I6" s="50">
-        <v>5</v>
-      </c>
-      <c r="J6" s="50">
-        <v>8</v>
-      </c>
-      <c r="K6" s="50">
-        <v>5</v>
-      </c>
-      <c r="L6" s="50">
-        <v>15</v>
-      </c>
-      <c r="M6" s="50">
-        <v>14</v>
-      </c>
-      <c r="N6" s="50">
-        <v>6</v>
-      </c>
-      <c r="O6" s="51">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="43">
-        <v>5</v>
-      </c>
-      <c r="E7" s="44">
-        <v>5</v>
-      </c>
-      <c r="F7" s="44">
-        <v>5</v>
-      </c>
-      <c r="G7" s="44">
-        <v>8</v>
-      </c>
-      <c r="H7" s="44">
-        <v>5</v>
-      </c>
-      <c r="I7" s="44">
-        <v>6</v>
-      </c>
-      <c r="J7" s="44">
-        <v>5</v>
-      </c>
-      <c r="K7" s="44">
-        <v>5</v>
-      </c>
-      <c r="L7" s="44">
-        <v>15</v>
-      </c>
-      <c r="M7" s="44">
-        <v>10</v>
-      </c>
-      <c r="N7" s="44">
-        <v>5</v>
-      </c>
-      <c r="O7" s="45">
-        <f t="shared" ref="O7:O19" si="1">SUM(D7:N7)</f>
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D8" s="30">
-        <v>5</v>
-      </c>
-      <c r="E8" s="38">
-        <v>5</v>
-      </c>
-      <c r="F8" s="38">
-        <v>5</v>
-      </c>
-      <c r="G8" s="38">
+        <v>4</v>
+      </c>
+      <c r="E8" s="34">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34">
+        <v>3</v>
+      </c>
+      <c r="G8" s="34">
+        <v>4</v>
+      </c>
+      <c r="H8" s="34">
+        <v>5</v>
+      </c>
+      <c r="I8" s="34">
+        <v>5</v>
+      </c>
+      <c r="J8" s="34">
         <v>8</v>
       </c>
-      <c r="H8" s="38">
-        <v>5</v>
-      </c>
-      <c r="I8" s="38">
+      <c r="K8" s="34">
+        <v>5</v>
+      </c>
+      <c r="L8" s="34">
+        <v>12</v>
+      </c>
+      <c r="M8" s="34">
+        <v>5</v>
+      </c>
+      <c r="N8" s="34">
+        <v>11</v>
+      </c>
+      <c r="O8" s="31">
+        <f>SUM(D8:N8)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="44">
+        <v>3</v>
+      </c>
+      <c r="E9" s="45">
+        <v>5</v>
+      </c>
+      <c r="F9" s="45">
+        <v>5</v>
+      </c>
+      <c r="G9" s="45">
+        <v>4</v>
+      </c>
+      <c r="H9" s="45">
+        <v>4</v>
+      </c>
+      <c r="I9" s="45">
         <v>6</v>
       </c>
-      <c r="J8" s="38">
-        <v>5</v>
-      </c>
-      <c r="K8" s="38">
-        <v>5</v>
-      </c>
-      <c r="L8" s="38">
-        <v>15</v>
-      </c>
-      <c r="M8" s="38">
-        <v>10</v>
-      </c>
-      <c r="N8" s="38">
-        <v>5</v>
-      </c>
-      <c r="O8" s="31">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="49">
-        <v>5</v>
-      </c>
-      <c r="E9" s="50">
-        <v>5</v>
-      </c>
-      <c r="F9" s="50">
-        <v>5</v>
-      </c>
-      <c r="G9" s="50">
-        <v>8</v>
-      </c>
-      <c r="H9" s="50">
-        <v>5</v>
-      </c>
-      <c r="I9" s="50">
-        <v>6</v>
-      </c>
-      <c r="J9" s="50">
-        <v>5</v>
-      </c>
-      <c r="K9" s="50">
-        <v>5</v>
-      </c>
-      <c r="L9" s="50">
-        <v>15</v>
-      </c>
-      <c r="M9" s="50">
-        <v>10</v>
-      </c>
-      <c r="N9" s="50">
-        <v>5</v>
-      </c>
-      <c r="O9" s="51">
-        <f t="shared" si="1"/>
-        <v>74</v>
+      <c r="J9" s="45">
+        <v>7</v>
+      </c>
+      <c r="K9" s="45">
+        <v>3</v>
+      </c>
+      <c r="L9" s="45">
+        <v>16</v>
+      </c>
+      <c r="M9" s="45">
+        <v>12</v>
+      </c>
+      <c r="N9" s="45">
+        <v>14</v>
+      </c>
+      <c r="O9" s="46">
+        <f>SUM(D9:N9)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="D10" s="30">
-        <v>5</v>
-      </c>
-      <c r="E10" s="38">
-        <v>4</v>
-      </c>
-      <c r="F10" s="38">
-        <v>4</v>
-      </c>
-      <c r="G10" s="38">
+        <v>2</v>
+      </c>
+      <c r="E10" s="34">
+        <v>3</v>
+      </c>
+      <c r="F10" s="34">
+        <v>3</v>
+      </c>
+      <c r="G10" s="34">
+        <v>4</v>
+      </c>
+      <c r="H10" s="34">
+        <v>4</v>
+      </c>
+      <c r="I10" s="34">
+        <v>5</v>
+      </c>
+      <c r="J10" s="34">
+        <v>8</v>
+      </c>
+      <c r="K10" s="34">
+        <v>5</v>
+      </c>
+      <c r="L10" s="34">
+        <v>15</v>
+      </c>
+      <c r="M10" s="34">
+        <v>15</v>
+      </c>
+      <c r="N10" s="34">
         <v>6</v>
       </c>
-      <c r="H10" s="38">
-        <v>4</v>
-      </c>
-      <c r="I10" s="38">
-        <v>6</v>
-      </c>
-      <c r="J10" s="38">
-        <v>5</v>
-      </c>
-      <c r="K10" s="38">
-        <v>1</v>
-      </c>
-      <c r="L10" s="38">
-        <v>15</v>
-      </c>
-      <c r="M10" s="38">
-        <v>13</v>
-      </c>
-      <c r="N10" s="38">
-        <v>10</v>
-      </c>
       <c r="O10" s="31">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f>SUM(D10:N10)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="D11" s="30">
-        <v>5</v>
-      </c>
-      <c r="E11" s="38">
-        <v>4</v>
-      </c>
-      <c r="F11" s="38">
-        <v>4</v>
-      </c>
-      <c r="G11" s="38">
+        <v>3</v>
+      </c>
+      <c r="E11" s="34">
+        <v>4</v>
+      </c>
+      <c r="F11" s="34">
+        <v>5</v>
+      </c>
+      <c r="G11" s="34">
+        <v>4</v>
+      </c>
+      <c r="H11" s="34">
+        <v>4</v>
+      </c>
+      <c r="I11" s="34">
+        <v>5</v>
+      </c>
+      <c r="J11" s="34">
+        <v>5</v>
+      </c>
+      <c r="K11" s="34">
+        <v>5</v>
+      </c>
+      <c r="L11" s="34">
+        <v>16</v>
+      </c>
+      <c r="M11" s="34">
+        <v>12</v>
+      </c>
+      <c r="N11" s="34">
+        <v>4</v>
+      </c>
+      <c r="O11" s="31">
+        <f>SUM(D11:N11)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="44">
+        <v>2</v>
+      </c>
+      <c r="E12" s="45">
+        <v>3</v>
+      </c>
+      <c r="F12" s="45">
+        <v>3</v>
+      </c>
+      <c r="G12" s="45">
+        <v>4</v>
+      </c>
+      <c r="H12" s="45">
+        <v>4</v>
+      </c>
+      <c r="I12" s="45">
+        <v>5</v>
+      </c>
+      <c r="J12" s="45">
+        <v>8</v>
+      </c>
+      <c r="K12" s="45">
+        <v>5</v>
+      </c>
+      <c r="L12" s="45">
+        <v>15</v>
+      </c>
+      <c r="M12" s="45">
+        <v>15</v>
+      </c>
+      <c r="N12" s="45">
         <v>6</v>
       </c>
-      <c r="H11" s="38">
-        <v>4</v>
-      </c>
-      <c r="I11" s="38">
-        <v>6</v>
-      </c>
-      <c r="J11" s="38">
-        <v>5</v>
-      </c>
-      <c r="K11" s="38">
-        <v>1</v>
-      </c>
-      <c r="L11" s="38">
-        <v>15</v>
-      </c>
-      <c r="M11" s="38">
-        <v>13</v>
-      </c>
-      <c r="N11" s="38">
-        <v>10</v>
-      </c>
-      <c r="O11" s="31">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="32">
-        <v>5</v>
-      </c>
-      <c r="E12" s="39">
-        <v>4</v>
-      </c>
-      <c r="F12" s="39">
-        <v>4</v>
-      </c>
-      <c r="G12" s="39">
-        <v>6</v>
-      </c>
-      <c r="H12" s="39">
-        <v>4</v>
-      </c>
-      <c r="I12" s="39">
-        <v>6</v>
-      </c>
-      <c r="J12" s="39">
-        <v>5</v>
-      </c>
-      <c r="K12" s="39">
-        <v>1</v>
-      </c>
-      <c r="L12" s="39">
-        <v>15</v>
-      </c>
-      <c r="M12" s="39">
-        <v>13</v>
-      </c>
-      <c r="N12" s="39">
-        <v>10</v>
-      </c>
-      <c r="O12" s="35">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
+      <c r="O12" s="46">
+        <f>SUM(D12:N12)</f>
+        <v>70</v>
+      </c>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="43">
-        <v>3</v>
-      </c>
-      <c r="E13" s="44">
-        <v>4</v>
-      </c>
-      <c r="F13" s="44">
-        <v>5</v>
-      </c>
-      <c r="G13" s="44">
-        <v>4</v>
-      </c>
-      <c r="H13" s="44">
-        <v>4</v>
-      </c>
-      <c r="I13" s="44">
-        <v>5</v>
-      </c>
-      <c r="J13" s="44">
-        <v>5</v>
-      </c>
-      <c r="K13" s="44">
-        <v>5</v>
-      </c>
-      <c r="L13" s="44">
-        <v>16</v>
-      </c>
-      <c r="M13" s="44">
+      <c r="A13" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="38">
+        <v>4</v>
+      </c>
+      <c r="E13" s="39">
+        <v>3</v>
+      </c>
+      <c r="F13" s="39">
+        <v>3</v>
+      </c>
+      <c r="G13" s="39">
+        <v>4</v>
+      </c>
+      <c r="H13" s="39">
+        <v>5</v>
+      </c>
+      <c r="I13" s="39">
+        <v>5</v>
+      </c>
+      <c r="J13" s="39">
+        <v>8</v>
+      </c>
+      <c r="K13" s="39">
+        <v>5</v>
+      </c>
+      <c r="L13" s="39">
         <v>12</v>
       </c>
-      <c r="N13" s="44">
-        <v>4</v>
-      </c>
-      <c r="O13" s="45">
-        <f t="shared" si="1"/>
-        <v>67</v>
+      <c r="M13" s="39">
+        <v>5</v>
+      </c>
+      <c r="N13" s="39">
+        <v>11</v>
+      </c>
+      <c r="O13" s="40">
+        <f>SUM(D13:N13)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4934,706 +6794,706 @@
       <c r="D14" s="30">
         <v>3</v>
       </c>
-      <c r="E14" s="38">
-        <v>4</v>
-      </c>
-      <c r="F14" s="38">
-        <v>5</v>
-      </c>
-      <c r="G14" s="38">
-        <v>4</v>
-      </c>
-      <c r="H14" s="38">
-        <v>4</v>
-      </c>
-      <c r="I14" s="38">
-        <v>5</v>
-      </c>
-      <c r="J14" s="38">
-        <v>5</v>
-      </c>
-      <c r="K14" s="38">
-        <v>5</v>
-      </c>
-      <c r="L14" s="38">
+      <c r="E14" s="34">
+        <v>4</v>
+      </c>
+      <c r="F14" s="34">
+        <v>5</v>
+      </c>
+      <c r="G14" s="34">
+        <v>4</v>
+      </c>
+      <c r="H14" s="34">
+        <v>4</v>
+      </c>
+      <c r="I14" s="34">
+        <v>5</v>
+      </c>
+      <c r="J14" s="34">
+        <v>5</v>
+      </c>
+      <c r="K14" s="34">
+        <v>5</v>
+      </c>
+      <c r="L14" s="34">
         <v>16</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="34">
         <v>12</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="34">
         <v>4</v>
       </c>
       <c r="O14" s="31">
-        <f t="shared" si="1"/>
+        <f>SUM(D14:N14)</f>
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="49">
-        <v>3</v>
-      </c>
-      <c r="E15" s="50">
-        <v>4</v>
-      </c>
-      <c r="F15" s="50">
-        <v>5</v>
-      </c>
-      <c r="G15" s="50">
-        <v>4</v>
-      </c>
-      <c r="H15" s="50">
-        <v>4</v>
-      </c>
-      <c r="I15" s="50">
-        <v>5</v>
-      </c>
-      <c r="J15" s="50">
-        <v>5</v>
-      </c>
-      <c r="K15" s="50">
-        <v>5</v>
-      </c>
-      <c r="L15" s="50">
+      <c r="D15" s="44">
+        <v>3</v>
+      </c>
+      <c r="E15" s="45">
+        <v>4</v>
+      </c>
+      <c r="F15" s="45">
+        <v>5</v>
+      </c>
+      <c r="G15" s="45">
+        <v>4</v>
+      </c>
+      <c r="H15" s="45">
+        <v>4</v>
+      </c>
+      <c r="I15" s="45">
+        <v>5</v>
+      </c>
+      <c r="J15" s="45">
+        <v>5</v>
+      </c>
+      <c r="K15" s="45">
+        <v>5</v>
+      </c>
+      <c r="L15" s="45">
         <v>16</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="45">
         <v>12</v>
       </c>
-      <c r="N15" s="50">
-        <v>4</v>
-      </c>
-      <c r="O15" s="51">
-        <f t="shared" si="1"/>
+      <c r="N15" s="45">
+        <v>4</v>
+      </c>
+      <c r="O15" s="46">
+        <f>SUM(D15:N15)</f>
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="A16" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="38">
+        <v>5</v>
+      </c>
+      <c r="E16" s="39">
+        <v>5</v>
+      </c>
+      <c r="F16" s="39">
+        <v>5</v>
+      </c>
+      <c r="G16" s="39">
+        <v>8</v>
+      </c>
+      <c r="H16" s="39">
+        <v>5</v>
+      </c>
+      <c r="I16" s="39">
+        <v>6</v>
+      </c>
+      <c r="J16" s="39">
+        <v>5</v>
+      </c>
+      <c r="K16" s="39">
+        <v>5</v>
+      </c>
+      <c r="L16" s="39">
+        <v>15</v>
+      </c>
+      <c r="M16" s="39">
+        <v>10</v>
+      </c>
+      <c r="N16" s="39">
+        <v>5</v>
+      </c>
+      <c r="O16" s="40">
+        <f>SUM(D16:N16)</f>
         <v>74</v>
       </c>
-      <c r="D16" s="43">
-        <v>3</v>
-      </c>
-      <c r="E16" s="44">
-        <v>5</v>
-      </c>
-      <c r="F16" s="44">
-        <v>5</v>
-      </c>
-      <c r="G16" s="44">
-        <v>4</v>
-      </c>
-      <c r="H16" s="44">
-        <v>4</v>
-      </c>
-      <c r="I16" s="44">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="30">
+        <v>2</v>
+      </c>
+      <c r="E17" s="34">
+        <v>4</v>
+      </c>
+      <c r="F17" s="34">
+        <v>3</v>
+      </c>
+      <c r="G17" s="34">
+        <v>5</v>
+      </c>
+      <c r="H17" s="34">
+        <v>3</v>
+      </c>
+      <c r="I17" s="34">
+        <v>3</v>
+      </c>
+      <c r="J17" s="34">
+        <v>8</v>
+      </c>
+      <c r="K17" s="34">
+        <v>4</v>
+      </c>
+      <c r="L17" s="34">
+        <v>12</v>
+      </c>
+      <c r="M17" s="34">
+        <v>12</v>
+      </c>
+      <c r="N17" s="34">
+        <v>14</v>
+      </c>
+      <c r="O17" s="31">
+        <f>SUM(D17:N17)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="30">
+        <v>4</v>
+      </c>
+      <c r="E18" s="34">
+        <v>3</v>
+      </c>
+      <c r="F18" s="34">
+        <v>3</v>
+      </c>
+      <c r="G18" s="34">
+        <v>4</v>
+      </c>
+      <c r="H18" s="34">
+        <v>5</v>
+      </c>
+      <c r="I18" s="34">
+        <v>5</v>
+      </c>
+      <c r="J18" s="34">
+        <v>8</v>
+      </c>
+      <c r="K18" s="34">
+        <v>5</v>
+      </c>
+      <c r="L18" s="34">
+        <v>12</v>
+      </c>
+      <c r="M18" s="34">
+        <v>5</v>
+      </c>
+      <c r="N18" s="34">
+        <v>11</v>
+      </c>
+      <c r="O18" s="31">
+        <f>SUM(D18:N18)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="44">
+        <v>4</v>
+      </c>
+      <c r="E19" s="45">
+        <v>5</v>
+      </c>
+      <c r="F19" s="45">
+        <v>5</v>
+      </c>
+      <c r="G19" s="45">
+        <v>4</v>
+      </c>
+      <c r="H19" s="45">
+        <v>5</v>
+      </c>
+      <c r="I19" s="45">
         <v>6</v>
       </c>
-      <c r="J16" s="44">
-        <v>7</v>
-      </c>
-      <c r="K16" s="44">
-        <v>3</v>
-      </c>
-      <c r="L16" s="44">
-        <v>16</v>
-      </c>
-      <c r="M16" s="44">
+      <c r="J19" s="45">
+        <v>8</v>
+      </c>
+      <c r="K19" s="45">
+        <v>5</v>
+      </c>
+      <c r="L19" s="45">
         <v>12</v>
       </c>
-      <c r="N16" s="44">
-        <v>14</v>
-      </c>
-      <c r="O16" s="45">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="30">
-        <v>3</v>
-      </c>
-      <c r="E17" s="38">
-        <v>5</v>
-      </c>
-      <c r="F17" s="38">
-        <v>5</v>
-      </c>
-      <c r="G17" s="38">
-        <v>4</v>
-      </c>
-      <c r="H17" s="38">
-        <v>4</v>
-      </c>
-      <c r="I17" s="38">
+      <c r="M19" s="45">
+        <v>8</v>
+      </c>
+      <c r="N19" s="45">
+        <v>5</v>
+      </c>
+      <c r="O19" s="46">
+        <f>SUM(D19:N19)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="38">
+        <v>4</v>
+      </c>
+      <c r="E20" s="39">
+        <v>5</v>
+      </c>
+      <c r="F20" s="39">
+        <v>5</v>
+      </c>
+      <c r="G20" s="39">
+        <v>4</v>
+      </c>
+      <c r="H20" s="39">
+        <v>5</v>
+      </c>
+      <c r="I20" s="39">
         <v>6</v>
       </c>
-      <c r="J17" s="38">
-        <v>7</v>
-      </c>
-      <c r="K17" s="38">
-        <v>3</v>
-      </c>
-      <c r="L17" s="38">
-        <v>16</v>
-      </c>
-      <c r="M17" s="38">
+      <c r="J20" s="39">
+        <v>8</v>
+      </c>
+      <c r="K20" s="39">
+        <v>5</v>
+      </c>
+      <c r="L20" s="39">
         <v>12</v>
       </c>
-      <c r="N17" s="38">
-        <v>14</v>
-      </c>
-      <c r="O17" s="31">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="30">
-        <v>3</v>
-      </c>
-      <c r="E18" s="38">
-        <v>5</v>
-      </c>
-      <c r="F18" s="38">
-        <v>5</v>
-      </c>
-      <c r="G18" s="38">
-        <v>4</v>
-      </c>
-      <c r="H18" s="38">
-        <v>4</v>
-      </c>
-      <c r="I18" s="38">
+      <c r="M20" s="39">
+        <v>8</v>
+      </c>
+      <c r="N20" s="39">
+        <v>5</v>
+      </c>
+      <c r="O20" s="40">
+        <f>SUM(D20:N20)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="30">
+        <v>5</v>
+      </c>
+      <c r="E21" s="34">
+        <v>4</v>
+      </c>
+      <c r="F21" s="34">
+        <v>4</v>
+      </c>
+      <c r="G21" s="34">
         <v>6</v>
       </c>
-      <c r="J18" s="38">
-        <v>7</v>
-      </c>
-      <c r="K18" s="38">
-        <v>3</v>
-      </c>
-      <c r="L18" s="38">
-        <v>16</v>
-      </c>
-      <c r="M18" s="38">
-        <v>12</v>
-      </c>
-      <c r="N18" s="38">
-        <v>14</v>
-      </c>
-      <c r="O18" s="31">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="49">
-        <v>3</v>
-      </c>
-      <c r="E19" s="50">
-        <v>5</v>
-      </c>
-      <c r="F19" s="50">
-        <v>5</v>
-      </c>
-      <c r="G19" s="50">
-        <v>4</v>
-      </c>
-      <c r="H19" s="50">
-        <v>4</v>
-      </c>
-      <c r="I19" s="50">
+      <c r="H21" s="34">
+        <v>4</v>
+      </c>
+      <c r="I21" s="34">
         <v>6</v>
       </c>
-      <c r="J19" s="50">
-        <v>7</v>
-      </c>
-      <c r="K19" s="50">
-        <v>3</v>
-      </c>
-      <c r="L19" s="50">
-        <v>16</v>
-      </c>
-      <c r="M19" s="50">
-        <v>12</v>
-      </c>
-      <c r="N19" s="50">
-        <v>14</v>
-      </c>
-      <c r="O19" s="51">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="43">
-        <v>4</v>
-      </c>
-      <c r="E20" s="44">
-        <v>5</v>
-      </c>
-      <c r="F20" s="44">
-        <v>5</v>
-      </c>
-      <c r="G20" s="44">
-        <v>4</v>
-      </c>
-      <c r="H20" s="44">
-        <v>5</v>
-      </c>
-      <c r="I20" s="44">
-        <v>6</v>
-      </c>
-      <c r="J20" s="44">
-        <v>8</v>
-      </c>
-      <c r="K20" s="44">
-        <v>5</v>
-      </c>
-      <c r="L20" s="44">
-        <v>12</v>
-      </c>
-      <c r="M20" s="44">
-        <v>8</v>
-      </c>
-      <c r="N20" s="44">
-        <v>5</v>
-      </c>
-      <c r="O20" s="45">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="30">
-        <v>4</v>
-      </c>
-      <c r="E21" s="38">
-        <v>5</v>
-      </c>
-      <c r="F21" s="38">
-        <v>5</v>
-      </c>
-      <c r="G21" s="38">
-        <v>4</v>
-      </c>
-      <c r="H21" s="38">
-        <v>5</v>
-      </c>
-      <c r="I21" s="38">
-        <v>6</v>
-      </c>
-      <c r="J21" s="38">
-        <v>8</v>
-      </c>
-      <c r="K21" s="38">
-        <v>5</v>
-      </c>
-      <c r="L21" s="38">
-        <v>12</v>
-      </c>
-      <c r="M21" s="38">
-        <v>8</v>
-      </c>
-      <c r="N21" s="38">
-        <v>5</v>
+      <c r="J21" s="34">
+        <v>5</v>
+      </c>
+      <c r="K21" s="34">
+        <v>1</v>
+      </c>
+      <c r="L21" s="34">
+        <v>15</v>
+      </c>
+      <c r="M21" s="34">
+        <v>13</v>
+      </c>
+      <c r="N21" s="34">
+        <v>10</v>
       </c>
       <c r="O21" s="31">
         <f>SUM(D21:N21)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D22" s="30">
-        <v>4</v>
-      </c>
-      <c r="E22" s="38">
-        <v>5</v>
-      </c>
-      <c r="F22" s="38">
-        <v>5</v>
-      </c>
-      <c r="G22" s="38">
-        <v>4</v>
-      </c>
-      <c r="H22" s="38">
-        <v>5</v>
-      </c>
-      <c r="I22" s="38">
+        <v>5</v>
+      </c>
+      <c r="E22" s="34">
+        <v>5</v>
+      </c>
+      <c r="F22" s="34">
+        <v>5</v>
+      </c>
+      <c r="G22" s="34">
+        <v>8</v>
+      </c>
+      <c r="H22" s="34">
+        <v>5</v>
+      </c>
+      <c r="I22" s="34">
         <v>6</v>
       </c>
-      <c r="J22" s="38">
-        <v>8</v>
-      </c>
-      <c r="K22" s="38">
-        <v>5</v>
-      </c>
-      <c r="L22" s="38">
-        <v>12</v>
-      </c>
-      <c r="M22" s="38">
-        <v>8</v>
-      </c>
-      <c r="N22" s="38">
+      <c r="J22" s="34">
+        <v>5</v>
+      </c>
+      <c r="K22" s="34">
+        <v>5</v>
+      </c>
+      <c r="L22" s="34">
+        <v>15</v>
+      </c>
+      <c r="M22" s="34">
+        <v>10</v>
+      </c>
+      <c r="N22" s="34">
         <v>5</v>
       </c>
       <c r="O22" s="31">
         <f>SUM(D22:N22)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D23" s="30">
-        <v>4</v>
-      </c>
-      <c r="E23" s="38">
-        <v>5</v>
-      </c>
-      <c r="F23" s="38">
-        <v>5</v>
-      </c>
-      <c r="G23" s="38">
-        <v>4</v>
-      </c>
-      <c r="H23" s="38">
-        <v>5</v>
-      </c>
-      <c r="I23" s="38">
-        <v>6</v>
-      </c>
-      <c r="J23" s="38">
+        <v>2</v>
+      </c>
+      <c r="E23" s="34">
+        <v>4</v>
+      </c>
+      <c r="F23" s="34">
+        <v>3</v>
+      </c>
+      <c r="G23" s="34">
+        <v>5</v>
+      </c>
+      <c r="H23" s="34">
+        <v>3</v>
+      </c>
+      <c r="I23" s="34">
+        <v>3</v>
+      </c>
+      <c r="J23" s="34">
         <v>8</v>
       </c>
-      <c r="K23" s="38">
-        <v>5</v>
-      </c>
-      <c r="L23" s="38">
+      <c r="K23" s="34">
+        <v>4</v>
+      </c>
+      <c r="L23" s="34">
         <v>12</v>
       </c>
-      <c r="M23" s="38">
-        <v>8</v>
-      </c>
-      <c r="N23" s="38">
-        <v>5</v>
+      <c r="M23" s="34">
+        <v>12</v>
+      </c>
+      <c r="N23" s="34">
+        <v>14</v>
       </c>
       <c r="O23" s="31">
         <f>SUM(D23:N23)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="49">
-        <v>4</v>
-      </c>
-      <c r="E24" s="50">
-        <v>5</v>
-      </c>
-      <c r="F24" s="50">
-        <v>5</v>
-      </c>
-      <c r="G24" s="50">
-        <v>4</v>
-      </c>
-      <c r="H24" s="50">
-        <v>5</v>
-      </c>
-      <c r="I24" s="50">
+      <c r="D24" s="44">
+        <v>4</v>
+      </c>
+      <c r="E24" s="45">
+        <v>5</v>
+      </c>
+      <c r="F24" s="45">
+        <v>5</v>
+      </c>
+      <c r="G24" s="45">
+        <v>4</v>
+      </c>
+      <c r="H24" s="45">
+        <v>5</v>
+      </c>
+      <c r="I24" s="45">
         <v>6</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="45">
         <v>8</v>
       </c>
-      <c r="K24" s="50">
-        <v>5</v>
-      </c>
-      <c r="L24" s="50">
+      <c r="K24" s="45">
+        <v>5</v>
+      </c>
+      <c r="L24" s="45">
         <v>12</v>
       </c>
-      <c r="M24" s="50">
+      <c r="M24" s="45">
         <v>8</v>
       </c>
-      <c r="N24" s="50">
-        <v>5</v>
-      </c>
-      <c r="O24" s="51">
+      <c r="N24" s="45">
+        <v>5</v>
+      </c>
+      <c r="O24" s="46">
         <f>SUM(D24:N24)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="38">
+        <v>4</v>
+      </c>
+      <c r="E25" s="39">
+        <v>5</v>
+      </c>
+      <c r="F25" s="39">
+        <v>5</v>
+      </c>
+      <c r="G25" s="39">
+        <v>4</v>
+      </c>
+      <c r="H25" s="39">
+        <v>5</v>
+      </c>
+      <c r="I25" s="39">
+        <v>6</v>
+      </c>
+      <c r="J25" s="39">
+        <v>8</v>
+      </c>
+      <c r="K25" s="39">
+        <v>5</v>
+      </c>
+      <c r="L25" s="39">
+        <v>12</v>
+      </c>
+      <c r="M25" s="39">
+        <v>8</v>
+      </c>
+      <c r="N25" s="39">
+        <v>5</v>
+      </c>
+      <c r="O25" s="40">
+        <f>SUM(D25:N25)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="44">
+        <v>2</v>
+      </c>
+      <c r="E26" s="45">
+        <v>3</v>
+      </c>
+      <c r="F26" s="45">
+        <v>3</v>
+      </c>
+      <c r="G26" s="45">
+        <v>4</v>
+      </c>
+      <c r="H26" s="45">
+        <v>4</v>
+      </c>
+      <c r="I26" s="45">
+        <v>5</v>
+      </c>
+      <c r="J26" s="45">
+        <v>8</v>
+      </c>
+      <c r="K26" s="45">
+        <v>5</v>
+      </c>
+      <c r="L26" s="45">
+        <v>15</v>
+      </c>
+      <c r="M26" s="45">
+        <v>15</v>
+      </c>
+      <c r="N26" s="45">
+        <v>6</v>
+      </c>
+      <c r="O26" s="46">
+        <f>SUM(D26:N26)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C27" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="43">
-        <v>4</v>
-      </c>
-      <c r="E25" s="44">
-        <v>4</v>
-      </c>
-      <c r="F25" s="44">
-        <v>4</v>
-      </c>
-      <c r="G25" s="44">
-        <v>3</v>
-      </c>
-      <c r="H25" s="44">
-        <v>3</v>
-      </c>
-      <c r="I25" s="44">
-        <v>5</v>
-      </c>
-      <c r="J25" s="44">
+      <c r="D27" s="38">
+        <v>4</v>
+      </c>
+      <c r="E27" s="39">
+        <v>4</v>
+      </c>
+      <c r="F27" s="39">
+        <v>4</v>
+      </c>
+      <c r="G27" s="39">
+        <v>3</v>
+      </c>
+      <c r="H27" s="39">
+        <v>3</v>
+      </c>
+      <c r="I27" s="39">
+        <v>5</v>
+      </c>
+      <c r="J27" s="39">
         <v>7</v>
       </c>
-      <c r="K25" s="44">
-        <v>4</v>
-      </c>
-      <c r="L25" s="44">
+      <c r="K27" s="39">
+        <v>4</v>
+      </c>
+      <c r="L27" s="39">
         <v>14</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M27" s="39">
         <v>12</v>
       </c>
-      <c r="N25" s="44">
-        <v>4</v>
-      </c>
-      <c r="O25" s="45">
-        <f t="shared" si="0"/>
+      <c r="N27" s="39">
+        <v>4</v>
+      </c>
+      <c r="O27" s="40">
+        <f>SUM(D27:N27)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="49">
-        <v>4</v>
-      </c>
-      <c r="E26" s="50">
-        <v>4</v>
-      </c>
-      <c r="F26" s="50">
-        <v>4</v>
-      </c>
-      <c r="G26" s="50">
-        <v>3</v>
-      </c>
-      <c r="H26" s="50">
-        <v>3</v>
-      </c>
-      <c r="I26" s="50">
-        <v>5</v>
-      </c>
-      <c r="J26" s="50">
-        <v>7</v>
-      </c>
-      <c r="K26" s="50">
-        <v>4</v>
-      </c>
-      <c r="L26" s="50">
-        <v>14</v>
-      </c>
-      <c r="M26" s="50">
-        <v>12</v>
-      </c>
-      <c r="N26" s="50">
-        <v>4</v>
-      </c>
-      <c r="O26" s="51">
-        <f>SUM(D26:N26)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B28" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C28" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="D27" s="43">
-        <v>2</v>
-      </c>
-      <c r="E27" s="44">
-        <v>4</v>
-      </c>
-      <c r="F27" s="44">
-        <v>3</v>
-      </c>
-      <c r="G27" s="44">
-        <v>5</v>
-      </c>
-      <c r="H27" s="44">
-        <v>3</v>
-      </c>
-      <c r="I27" s="44">
-        <v>3</v>
-      </c>
-      <c r="J27" s="44">
-        <v>8</v>
-      </c>
-      <c r="K27" s="44">
-        <v>4</v>
-      </c>
-      <c r="L27" s="44">
-        <v>12</v>
-      </c>
-      <c r="M27" s="44">
-        <v>12</v>
-      </c>
-      <c r="N27" s="44">
-        <v>14</v>
-      </c>
-      <c r="O27" s="45">
-        <f>SUM(D27:N27)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>134</v>
       </c>
       <c r="D28" s="30">
         <v>2</v>
       </c>
-      <c r="E28" s="38">
-        <v>4</v>
-      </c>
-      <c r="F28" s="38">
-        <v>3</v>
-      </c>
-      <c r="G28" s="38">
-        <v>5</v>
-      </c>
-      <c r="H28" s="38">
-        <v>3</v>
-      </c>
-      <c r="I28" s="38">
-        <v>3</v>
-      </c>
-      <c r="J28" s="38">
+      <c r="E28" s="34">
+        <v>4</v>
+      </c>
+      <c r="F28" s="34">
+        <v>3</v>
+      </c>
+      <c r="G28" s="34">
+        <v>5</v>
+      </c>
+      <c r="H28" s="34">
+        <v>3</v>
+      </c>
+      <c r="I28" s="34">
+        <v>3</v>
+      </c>
+      <c r="J28" s="34">
         <v>8</v>
       </c>
-      <c r="K28" s="38">
-        <v>4</v>
-      </c>
-      <c r="L28" s="38">
+      <c r="K28" s="34">
+        <v>4</v>
+      </c>
+      <c r="L28" s="34">
         <v>12</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="34">
         <v>12</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="34">
         <v>14</v>
       </c>
       <c r="O28" s="31">
@@ -5641,305 +7501,308 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D29" s="30">
-        <v>2</v>
-      </c>
-      <c r="E29" s="38">
-        <v>4</v>
-      </c>
-      <c r="F29" s="38">
-        <v>3</v>
-      </c>
-      <c r="G29" s="38">
-        <v>5</v>
-      </c>
-      <c r="H29" s="38">
-        <v>3</v>
-      </c>
-      <c r="I29" s="38">
-        <v>3</v>
-      </c>
-      <c r="J29" s="38">
+        <v>4</v>
+      </c>
+      <c r="E29" s="34">
+        <v>3</v>
+      </c>
+      <c r="F29" s="34">
+        <v>3</v>
+      </c>
+      <c r="G29" s="34">
+        <v>4</v>
+      </c>
+      <c r="H29" s="34">
+        <v>5</v>
+      </c>
+      <c r="I29" s="34">
+        <v>5</v>
+      </c>
+      <c r="J29" s="34">
         <v>8</v>
       </c>
-      <c r="K29" s="38">
-        <v>4</v>
-      </c>
-      <c r="L29" s="38">
+      <c r="K29" s="34">
+        <v>5</v>
+      </c>
+      <c r="L29" s="34">
         <v>12</v>
       </c>
-      <c r="M29" s="38">
-        <v>12</v>
-      </c>
-      <c r="N29" s="38">
-        <v>14</v>
+      <c r="M29" s="34">
+        <v>5</v>
+      </c>
+      <c r="N29" s="34">
+        <v>11</v>
       </c>
       <c r="O29" s="31">
         <f>SUM(D29:N29)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="49">
+        <v>65</v>
+      </c>
+      <c r="P29" s="25">
+        <f>1+15+4+15+10+25+15+15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="44">
         <v>2</v>
       </c>
-      <c r="E30" s="50">
-        <v>4</v>
-      </c>
-      <c r="F30" s="50">
-        <v>3</v>
-      </c>
-      <c r="G30" s="50">
-        <v>5</v>
-      </c>
-      <c r="H30" s="50">
-        <v>3</v>
-      </c>
-      <c r="I30" s="50">
-        <v>3</v>
-      </c>
-      <c r="J30" s="50">
+      <c r="E30" s="45">
+        <v>3</v>
+      </c>
+      <c r="F30" s="45">
+        <v>3</v>
+      </c>
+      <c r="G30" s="45">
+        <v>4</v>
+      </c>
+      <c r="H30" s="45">
+        <v>4</v>
+      </c>
+      <c r="I30" s="45">
+        <v>5</v>
+      </c>
+      <c r="J30" s="45">
         <v>8</v>
       </c>
-      <c r="K30" s="50">
-        <v>4</v>
-      </c>
-      <c r="L30" s="50">
-        <v>12</v>
-      </c>
-      <c r="M30" s="50">
-        <v>12</v>
-      </c>
-      <c r="N30" s="50">
-        <v>14</v>
-      </c>
-      <c r="O30" s="51">
+      <c r="K30" s="45">
+        <v>5</v>
+      </c>
+      <c r="L30" s="45">
+        <v>15</v>
+      </c>
+      <c r="M30" s="45">
+        <v>15</v>
+      </c>
+      <c r="N30" s="45">
+        <v>6</v>
+      </c>
+      <c r="O30" s="46">
         <f>SUM(D30:N30)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="41" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="38">
+        <v>4</v>
+      </c>
+      <c r="E31" s="39">
+        <v>5</v>
+      </c>
+      <c r="F31" s="39">
+        <v>5</v>
+      </c>
+      <c r="G31" s="39">
+        <v>4</v>
+      </c>
+      <c r="H31" s="39">
+        <v>5</v>
+      </c>
+      <c r="I31" s="39">
+        <v>6</v>
+      </c>
+      <c r="J31" s="39">
+        <v>8</v>
+      </c>
+      <c r="K31" s="39">
+        <v>5</v>
+      </c>
+      <c r="L31" s="39">
+        <v>12</v>
+      </c>
+      <c r="M31" s="39">
+        <v>8</v>
+      </c>
+      <c r="N31" s="39">
+        <v>5</v>
+      </c>
+      <c r="O31" s="40">
+        <f>SUM(D31:N31)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="30">
+        <v>3</v>
+      </c>
+      <c r="E32" s="34">
+        <v>5</v>
+      </c>
+      <c r="F32" s="34">
+        <v>5</v>
+      </c>
+      <c r="G32" s="34">
+        <v>4</v>
+      </c>
+      <c r="H32" s="34">
+        <v>4</v>
+      </c>
+      <c r="I32" s="34">
+        <v>6</v>
+      </c>
+      <c r="J32" s="34">
+        <v>7</v>
+      </c>
+      <c r="K32" s="34">
+        <v>3</v>
+      </c>
+      <c r="L32" s="34">
+        <v>16</v>
+      </c>
+      <c r="M32" s="34">
+        <v>12</v>
+      </c>
+      <c r="N32" s="34">
+        <v>14</v>
+      </c>
+      <c r="O32" s="31">
+        <f>SUM(D32:N32)</f>
         <v>79</v>
       </c>
-      <c r="C31" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="43">
-        <v>4</v>
-      </c>
-      <c r="E31" s="44">
-        <v>3</v>
-      </c>
-      <c r="F31" s="44">
-        <v>3</v>
-      </c>
-      <c r="G31" s="44">
-        <v>4</v>
-      </c>
-      <c r="H31" s="44">
-        <v>5</v>
-      </c>
-      <c r="I31" s="44">
-        <v>5</v>
-      </c>
-      <c r="J31" s="44">
-        <v>8</v>
-      </c>
-      <c r="K31" s="44">
-        <v>5</v>
-      </c>
-      <c r="L31" s="44">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="30">
+        <v>3</v>
+      </c>
+      <c r="E33" s="34">
+        <v>5</v>
+      </c>
+      <c r="F33" s="34">
+        <v>5</v>
+      </c>
+      <c r="G33" s="34">
+        <v>4</v>
+      </c>
+      <c r="H33" s="34">
+        <v>4</v>
+      </c>
+      <c r="I33" s="34">
+        <v>6</v>
+      </c>
+      <c r="J33" s="34">
+        <v>7</v>
+      </c>
+      <c r="K33" s="34">
+        <v>3</v>
+      </c>
+      <c r="L33" s="34">
+        <v>16</v>
+      </c>
+      <c r="M33" s="34">
         <v>12</v>
       </c>
-      <c r="M31" s="44">
-        <v>5</v>
-      </c>
-      <c r="N31" s="44">
-        <v>11</v>
-      </c>
-      <c r="O31" s="45">
-        <f t="shared" si="0"/>
+      <c r="N33" s="34">
+        <v>14</v>
+      </c>
+      <c r="O33" s="31">
+        <f>SUM(D33:N33)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="49" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="30">
-        <v>4</v>
-      </c>
-      <c r="E32" s="38">
-        <v>3</v>
-      </c>
-      <c r="F32" s="38">
-        <v>3</v>
-      </c>
-      <c r="G32" s="38">
-        <v>4</v>
-      </c>
-      <c r="H32" s="38">
-        <v>5</v>
-      </c>
-      <c r="I32" s="38">
-        <v>5</v>
-      </c>
-      <c r="J32" s="38">
-        <v>8</v>
-      </c>
-      <c r="K32" s="38">
-        <v>5</v>
-      </c>
-      <c r="L32" s="38">
+      <c r="D34" s="50">
+        <v>3</v>
+      </c>
+      <c r="E34" s="51">
+        <v>5</v>
+      </c>
+      <c r="F34" s="51">
+        <v>5</v>
+      </c>
+      <c r="G34" s="51">
+        <v>4</v>
+      </c>
+      <c r="H34" s="51">
+        <v>4</v>
+      </c>
+      <c r="I34" s="51">
+        <v>6</v>
+      </c>
+      <c r="J34" s="51">
+        <v>7</v>
+      </c>
+      <c r="K34" s="51">
+        <v>3</v>
+      </c>
+      <c r="L34" s="51">
+        <v>16</v>
+      </c>
+      <c r="M34" s="51">
         <v>12</v>
       </c>
-      <c r="M32" s="38">
-        <v>5</v>
-      </c>
-      <c r="N32" s="38">
-        <v>11</v>
-      </c>
-      <c r="O32" s="31">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="30">
-        <v>4</v>
-      </c>
-      <c r="E33" s="38">
-        <v>3</v>
-      </c>
-      <c r="F33" s="38">
-        <v>3</v>
-      </c>
-      <c r="G33" s="38">
-        <v>4</v>
-      </c>
-      <c r="H33" s="38">
-        <v>5</v>
-      </c>
-      <c r="I33" s="38">
-        <v>5</v>
-      </c>
-      <c r="J33" s="38">
-        <v>8</v>
-      </c>
-      <c r="K33" s="38">
-        <v>5</v>
-      </c>
-      <c r="L33" s="38">
-        <v>12</v>
-      </c>
-      <c r="M33" s="38">
-        <v>5</v>
-      </c>
-      <c r="N33" s="38">
-        <v>11</v>
-      </c>
-      <c r="O33" s="31">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="55">
-        <v>4</v>
-      </c>
-      <c r="E34" s="56">
-        <v>3</v>
-      </c>
-      <c r="F34" s="56">
-        <v>3</v>
-      </c>
-      <c r="G34" s="56">
-        <v>4</v>
-      </c>
-      <c r="H34" s="56">
-        <v>5</v>
-      </c>
-      <c r="I34" s="56">
-        <v>5</v>
-      </c>
-      <c r="J34" s="56">
-        <v>8</v>
-      </c>
-      <c r="K34" s="56">
-        <v>5</v>
-      </c>
-      <c r="L34" s="56">
-        <v>12</v>
-      </c>
-      <c r="M34" s="56">
-        <v>5</v>
-      </c>
-      <c r="N34" s="56">
-        <v>11</v>
-      </c>
-      <c r="O34" s="57">
+      <c r="N34" s="51">
+        <v>14</v>
+      </c>
+      <c r="O34" s="52">
         <f>SUM(D34:N34)</f>
-        <v>65</v>
-      </c>
-      <c r="P34" s="25">
-        <f>1+15+4+15+10+25+15+15</f>
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P33"/>
+  <sortState ref="A2:P34">
+    <sortCondition ref="A2:A34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
